--- a/validation_excel.xlsx
+++ b/validation_excel.xlsx
@@ -7,162 +7,248 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="rwbmuctaed" sheetId="1" r:id="rId1"/>
-    <sheet name="viydkaemnz" sheetId="2" r:id="rId2"/>
-    <sheet name="tqjbweshxk" sheetId="3" r:id="rId3"/>
-    <sheet name="vkdnaqcixp" sheetId="4" r:id="rId4"/>
-    <sheet name="fgliaqmnbd" sheetId="5" r:id="rId5"/>
-    <sheet name="qxujaoywrt" sheetId="6" r:id="rId6"/>
+    <sheet name="wxtlnuhsfq" sheetId="1" r:id="rId1"/>
+    <sheet name="hnckxzgpbl" sheetId="2" r:id="rId2"/>
+    <sheet name="kvzgxqupof" sheetId="3" r:id="rId3"/>
+    <sheet name="rivcteahzf" sheetId="4" r:id="rId4"/>
+    <sheet name="rpchfjydnv" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
   <si>
     <t>translationSetId</t>
   </si>
   <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>openair</t>
+  </si>
+  <si>
+    <t>museumname</t>
+  </si>
+  <si>
+    <t>museum total</t>
+  </si>
+  <si>
+    <t>feature total</t>
+  </si>
+  <si>
+    <t>e9ad0209-89ad-4e53-a353-b7328562f8e6</t>
+  </si>
+  <si>
+    <t>4b596778-4379-48da-a946-0d04e39e3cea</t>
+  </si>
+  <si>
+    <t>832cd1d6-c933-4279-8ae6-1e3fa38853a2</t>
+  </si>
+  <si>
+    <t>7810d0eb-0034-457b-9cf7-ae7aa21e104f</t>
+  </si>
+  <si>
+    <t>f42e58c1-d6e6-4bdb-aa51-e0af569e31df</t>
+  </si>
+  <si>
+    <t>23eaf7fc-a6ca-40a3-87c5-257dca174595</t>
+  </si>
+  <si>
+    <t>424e8423-e43b-48e8-ad19-821014020860</t>
+  </si>
+  <si>
+    <t>c5ad38ca-1303-43d2-adee-04bb0e3268f6</t>
+  </si>
+  <si>
+    <t>a8d715f7-82f5-4df4-9308-0d33c4c1eaa2</t>
+  </si>
+  <si>
+    <t>1e3aaa11-c04f-43bd-9707-58401ee41056</t>
+  </si>
+  <si>
+    <t>Universiteitsmuseum Groningen</t>
+  </si>
+  <si>
+    <t>Museum Het Pakhuis</t>
+  </si>
+  <si>
+    <t>Museum de Kantfabriek</t>
+  </si>
+  <si>
+    <t>Rijksmuseum Amsterdam</t>
+  </si>
+  <si>
+    <t>Joods Historisch Museum</t>
+  </si>
+  <si>
+    <t>Nationaal Onderduikmuseum</t>
+  </si>
+  <si>
+    <t>Comenius Museum</t>
+  </si>
+  <si>
+    <t>Stedelijk Museum Alkmaar</t>
+  </si>
+  <si>
+    <t>Koninklijk Paleis Amsterdam</t>
+  </si>
+  <si>
+    <t>Hunebedcentrum</t>
+  </si>
+  <si>
     <t>naval</t>
   </si>
   <si>
+    <t>cfb73ba4-3c32-49fe-95f6-39f1b18f8894</t>
+  </si>
+  <si>
+    <t>5a140fbe-2efc-42e1-ad57-c01ac3a7b409</t>
+  </si>
+  <si>
+    <t>c96d0dd3-36c3-4b3c-b3ea-d11ca9840207</t>
+  </si>
+  <si>
+    <t>b2398575-3c86-42a2-b07c-886384eb9add</t>
+  </si>
+  <si>
+    <t>0aa09155-261b-4190-a561-e593ca877e24</t>
+  </si>
+  <si>
+    <t>9231914a-1dac-4afe-b28a-cc37ee7c5bfd</t>
+  </si>
+  <si>
+    <t>9c4bddf8-9bef-46cb-a2ef-5f13ba85884f</t>
+  </si>
+  <si>
+    <t>971a3945-faba-4021-8d5b-5b6fcd124640</t>
+  </si>
+  <si>
+    <t>Nationaal Vlechtmuseum</t>
+  </si>
+  <si>
+    <t>Observeum Burgum</t>
+  </si>
+  <si>
+    <t>Museum De Zwarte Tulp</t>
+  </si>
+  <si>
+    <t>Museum Wierdenland Ezinge</t>
+  </si>
+  <si>
+    <t>Museum voor anatomie en pathologie</t>
+  </si>
+  <si>
+    <t>Streek &amp; Landbouwmuseum Goemanszorg</t>
+  </si>
+  <si>
+    <t>Nederlands Watermuseum</t>
+  </si>
+  <si>
+    <t>Zuiderzeemuseum</t>
+  </si>
+  <si>
+    <t>ethnology</t>
+  </si>
+  <si>
+    <t>a42cba4d-03ab-449a-8fb5-a24fb363afa5</t>
+  </si>
+  <si>
+    <t>f05af616-d419-463e-89da-c107b2f20129</t>
+  </si>
+  <si>
+    <t>a2040f47-849b-4ca6-967e-adee1ee5a930</t>
+  </si>
+  <si>
+    <t>8fae9e9b-5c62-477b-9ccc-d9d3ec1d695c</t>
+  </si>
+  <si>
+    <t>8f9a43db-d28a-4857-b4e5-2f128210a7ee</t>
+  </si>
+  <si>
+    <t>550e313e-c3f0-406c-b4d3-01dbce024096</t>
+  </si>
+  <si>
+    <t>Belasting &amp; Douane Museum</t>
+  </si>
+  <si>
+    <t>Museum Het Valkhof</t>
+  </si>
+  <si>
+    <t>TextielMuseum</t>
+  </si>
+  <si>
+    <t>Nederlands Zilvermuseum</t>
+  </si>
+  <si>
+    <t>Museum 't Oude Slot</t>
+  </si>
+  <si>
+    <t>Museum Collectie Brands</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
     <t>tech</t>
   </si>
   <si>
-    <t>museum total</t>
-  </si>
-  <si>
-    <t>feature total</t>
-  </si>
-  <si>
-    <t>7810d0eb-0034-457b-9cf7-ae7aa21e104f</t>
-  </si>
-  <si>
-    <t>20dd4b53-05a1-4fd1-9ff7-4d936ac4afee</t>
-  </si>
-  <si>
-    <t>f05af616-d419-463e-89da-c107b2f20129</t>
-  </si>
-  <si>
-    <t>ad5b634c-e784-4755-ae75-8748507fa437</t>
-  </si>
-  <si>
-    <t>05a94d26-c8df-4105-8df5-67f1acd7e8c5</t>
-  </si>
-  <si>
-    <t>1de93dee-f6b5-4a1c-8d7f-e896df26a694</t>
-  </si>
-  <si>
-    <t>8f9a43db-d28a-4857-b4e5-2f128210a7ee</t>
-  </si>
-  <si>
-    <t>abaad182-4619-449e-96a5-4583f8701299</t>
-  </si>
-  <si>
-    <t>689733f3-0f0a-411d-b5b4-a33dd39639f0</t>
-  </si>
-  <si>
-    <t>1e3aaa11-c04f-43bd-9707-58401ee41056</t>
-  </si>
-  <si>
-    <t>ethnology</t>
-  </si>
-  <si>
-    <t>openair</t>
-  </si>
-  <si>
-    <t>832cd1d6-c933-4279-8ae6-1e3fa38853a2</t>
-  </si>
-  <si>
-    <t>e9ad0209-89ad-4e53-a353-b7328562f8e6</t>
-  </si>
-  <si>
-    <t>b95305d9-cc57-498c-8819-c1983713d181</t>
-  </si>
-  <si>
-    <t>798b12be-0127-4f41-91df-1a5e71af1e37</t>
-  </si>
-  <si>
-    <t>682197a8-0359-4094-8281-ffa059de480f</t>
-  </si>
-  <si>
-    <t>b5d597b1-730f-402b-bc6e-a86cadebd973</t>
-  </si>
-  <si>
-    <t>nature</t>
-  </si>
-  <si>
-    <t>d1e42c4d-d176-4833-98a8-a3fb4a725b91</t>
-  </si>
-  <si>
-    <t>54f9204e-e6fd-4ea3-a352-84484292b8ba</t>
-  </si>
-  <si>
-    <t>4cb403ef-21c9-4731-86a2-f9f32bd44487</t>
+    <t>c2d8b6c2-92ae-46c2-9890-8696aaec6e1d</t>
+  </si>
+  <si>
+    <t>cc12b367-a374-4c8a-bd04-8b24e412af3c</t>
+  </si>
+  <si>
+    <t>c40020e4-d23b-4607-9145-7aa020866c04</t>
+  </si>
+  <si>
+    <t>3f224a07-d3c3-4467-ab27-2d0f4d6705dc</t>
+  </si>
+  <si>
+    <t>38107554-9018-4367-b2ad-58797d7806c5</t>
   </si>
   <si>
     <t>dc084656-3e15-4519-9412-4753da0bc11b</t>
   </si>
   <si>
-    <t>02f0dab3-4ee5-4c38-a0b8-ae02ed4b06b3</t>
-  </si>
-  <si>
-    <t>culture</t>
-  </si>
-  <si>
-    <t>f42e58c1-d6e6-4bdb-aa51-e0af569e31df</t>
-  </si>
-  <si>
-    <t>dffe8ae8-e39f-49d2-a41b-004775a406a8</t>
-  </si>
-  <si>
-    <t>5ea552c8-0db1-4e75-b6b0-d5b5933a5f2f</t>
-  </si>
-  <si>
-    <t>a2040f47-849b-4ca6-967e-adee1ee5a930</t>
-  </si>
-  <si>
-    <t>13f31d31-81bc-4d7a-9347-da1fa9ce5e43</t>
+    <t>f9878ebc-3a04-4842-8da9-af3775d99441</t>
+  </si>
+  <si>
+    <t>Openluchtmuseum Ootmarsum</t>
+  </si>
+  <si>
+    <t>Nederlands Openluchtmuseum</t>
+  </si>
+  <si>
+    <t>Huygens' Hofwijck</t>
+  </si>
+  <si>
+    <t>Openluchtmuseum en Themapark De Spitkeet</t>
+  </si>
+  <si>
+    <t>Openluchtmuseum Het Hoogeland</t>
+  </si>
+  <si>
+    <t>Museumpark Orientalis</t>
+  </si>
+  <si>
+    <t>Nederlands Bakkerijmuseum</t>
   </si>
   <si>
     <t>621c0554-f8d1-454c-9218-e60683a536ee</t>
   </si>
   <si>
-    <t>8fae9e9b-5c62-477b-9ccc-d9d3ec1d695c</t>
-  </si>
-  <si>
-    <t>visual</t>
-  </si>
-  <si>
-    <t>a42cba4d-03ab-449a-8fb5-a24fb363afa5</t>
-  </si>
-  <si>
-    <t>9231914a-1dac-4afe-b28a-cc37ee7c5bfd</t>
-  </si>
-  <si>
-    <t>3caa2392-510f-4c85-a489-b83e8200ff90</t>
-  </si>
-  <si>
-    <t>ddc06b8b-9dd1-4768-be15-75477b0f104a</t>
-  </si>
-  <si>
-    <t>f03acb0d-bfe6-45f8-847c-d3fa96aabe1f</t>
-  </si>
-  <si>
-    <t>cc12b367-a374-4c8a-bd04-8b24e412af3c</t>
-  </si>
-  <si>
-    <t>c2d8b6c2-92ae-46c2-9890-8696aaec6e1d</t>
-  </si>
-  <si>
-    <t>d9c3694b-8999-46e7-9264-66e2ca190c86</t>
-  </si>
-  <si>
-    <t>971a3945-faba-4021-8d5b-5b6fcd124640</t>
-  </si>
-  <si>
-    <t>1d9c7610-ab17-4f68-ae48-9cefefc32b20</t>
+    <t>ce103d55-e291-48e2-ab48-7e464261985f</t>
+  </si>
+  <si>
+    <t>mij | museum ijsselstein</t>
+  </si>
+  <si>
+    <t>Museum Maassluis</t>
   </si>
 </sst>
 </file>
@@ -520,13 +606,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,133 +625,181 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>450</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>250</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>230</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>462</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>339</v>
-      </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
+        <v>468</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>386</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>266</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>336</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
       <c r="C9">
         <v>0</v>
       </c>
@@ -675,13 +809,19 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>204</v>
+        <v>328</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -692,36 +832,51 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -730,6 +885,250 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>407</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>393</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>450</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>347</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>272</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>301</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>290</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -742,27 +1141,27 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" t="s">
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -770,16 +1169,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>60</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="D3" t="s">
+        <v>51</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -787,19 +1186,19 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>204</v>
+        <v>468</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -807,13 +1206,13 @@
         <v>450</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="D5" t="s">
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -821,16 +1220,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>359</v>
+        <v>462</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
+      <c r="D6" t="s">
+        <v>52</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -838,16 +1237,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>232</v>
+        <v>313</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
+      <c r="D7" t="s">
+        <v>53</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -855,16 +1254,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
+      <c r="D8" t="s">
+        <v>54</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -872,16 +1271,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>202</v>
+        <v>266</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>0</v>
+      <c r="D9" t="s">
+        <v>55</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -889,16 +1288,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>354</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>0</v>
+      <c r="D10" t="s">
+        <v>56</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -906,16 +1305,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>0</v>
+      <c r="D11" t="s">
+        <v>43</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -923,16 +1322,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +1336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -953,24 +1349,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>414</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -978,8 +1374,8 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>43</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -987,10 +1383,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>168</v>
+        <v>380</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -998,8 +1394,8 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>66</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1007,10 +1403,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>150</v>
+        <v>401</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1018,8 +1414,8 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>67</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1027,10 +1423,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>230</v>
+        <v>382</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1038,8 +1434,8 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>68</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1047,10 +1443,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>434</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1058,8 +1454,8 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="E6" t="s">
+        <v>69</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1067,30 +1463,30 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>0</v>
+      <c r="E7" t="s">
+        <v>70</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>339</v>
+        <v>434</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1098,8 +1494,8 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>0</v>
+      <c r="E8" t="s">
+        <v>71</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1107,10 +1503,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>14</v>
+        <v>462</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1118,8 +1514,8 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>0</v>
+      <c r="E9" t="s">
+        <v>52</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1127,10 +1523,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>462</v>
+        <v>230</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1138,8 +1534,8 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="E10" t="s">
+        <v>20</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1147,19 +1543,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
+        <v>482</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
         <v>72</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1167,19 +1563,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1187,7 +1580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -1200,132 +1593,132 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>468</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>185</v>
+        <v>468</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="D4" t="s">
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>450</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>51</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>313</v>
+        <v>462</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="D6" t="s">
+        <v>52</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>1</v>
+      <c r="D7" t="s">
+        <v>55</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1333,486 +1726,61 @@
         <v>194</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>1</v>
+      <c r="D9" t="s">
+        <v>75</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>462</v>
+        <v>403</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>1</v>
+      <c r="D10" t="s">
+        <v>76</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>1</v>
+      <c r="D11" t="s">
+        <v>53</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>316</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>230</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>272</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>119</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>436</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>462</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>313</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>450</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>268</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>266</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>461</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>401</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>380</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>430</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>168</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>119</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>290</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>436</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/validation_excel.xlsx
+++ b/validation_excel.xlsx
@@ -7,248 +7,315 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="wxtlnuhsfq" sheetId="1" r:id="rId1"/>
-    <sheet name="hnckxzgpbl" sheetId="2" r:id="rId2"/>
-    <sheet name="kvzgxqupof" sheetId="3" r:id="rId3"/>
-    <sheet name="rivcteahzf" sheetId="4" r:id="rId4"/>
-    <sheet name="rpchfjydnv" sheetId="5" r:id="rId5"/>
+    <sheet name="drgqybcoei" sheetId="1" r:id="rId1"/>
+    <sheet name="vzsjfkabit" sheetId="2" r:id="rId2"/>
+    <sheet name="uljcqzbgfo" sheetId="3" r:id="rId3"/>
+    <sheet name="lswdazrkcf" sheetId="4" r:id="rId4"/>
+    <sheet name="fwdrkvuham" sheetId="5" r:id="rId5"/>
+    <sheet name="ifvtpwrsqm" sheetId="6" r:id="rId6"/>
+    <sheet name="vnhzfmtkqe" sheetId="7" r:id="rId7"/>
+    <sheet name="zlvndycprt" sheetId="8" r:id="rId8"/>
+    <sheet name="zuqixbypom" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="98">
   <si>
     <t>translationSetId</t>
   </si>
   <si>
+    <t>museumname</t>
+  </si>
+  <si>
+    <t>culture</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>museum total</t>
+  </si>
+  <si>
+    <t>feature total</t>
+  </si>
+  <si>
+    <t>944a4c15-58c0-44dc-8f8a-c65b44179c16</t>
+  </si>
+  <si>
+    <t>38a216ca-1fee-45de-9b0a-ae857342d0c0</t>
+  </si>
+  <si>
+    <t>b5d597b1-730f-402b-bc6e-a86cadebd973</t>
+  </si>
+  <si>
+    <t>f57a988c-883e-4f75-8dc6-7d5f76d005e5</t>
+  </si>
+  <si>
+    <t>5ebaa739-b1a4-443b-9cde-6c0b18e81607</t>
+  </si>
+  <si>
+    <t>d393d962-7ee9-411b-8c60-c0879d6e3fd7</t>
+  </si>
+  <si>
+    <t>e9ad0209-89ad-4e53-a353-b7328562f8e6</t>
+  </si>
+  <si>
+    <t>f42e58c1-d6e6-4bdb-aa51-e0af569e31df</t>
+  </si>
+  <si>
+    <t>1cf7d97e-57d6-4550-be98-8d19ea5ac3a5</t>
+  </si>
+  <si>
+    <t>f82c9249-ae42-4690-bcbc-9db3f55db2d0</t>
+  </si>
+  <si>
+    <t>Missiemuseum Steyl</t>
+  </si>
+  <si>
+    <t>Botanische Tuin TU Delft</t>
+  </si>
+  <si>
+    <t>Geologisch Museum Hofland</t>
+  </si>
+  <si>
+    <t>Museum Terra Maris</t>
+  </si>
+  <si>
+    <t>Museon</t>
+  </si>
+  <si>
+    <t>Micropia</t>
+  </si>
+  <si>
+    <t>Universiteitsmuseum Groningen</t>
+  </si>
+  <si>
+    <t>Joods Historisch Museum</t>
+  </si>
+  <si>
+    <t>Pieter Vermeulen Museum</t>
+  </si>
+  <si>
+    <t>Natuurmuseum Fryslân</t>
+  </si>
+  <si>
+    <t>openair</t>
+  </si>
+  <si>
     <t>library</t>
   </si>
   <si>
-    <t>history</t>
-  </si>
-  <si>
-    <t>openair</t>
-  </si>
-  <si>
-    <t>museumname</t>
-  </si>
-  <si>
-    <t>museum total</t>
-  </si>
-  <si>
-    <t>feature total</t>
-  </si>
-  <si>
-    <t>e9ad0209-89ad-4e53-a353-b7328562f8e6</t>
+    <t>832cd1d6-c933-4279-8ae6-1e3fa38853a2</t>
+  </si>
+  <si>
+    <t>7810d0eb-0034-457b-9cf7-ae7aa21e104f</t>
+  </si>
+  <si>
+    <t>044424ba-e4e7-4de8-b88c-ccaf14cf4c59</t>
+  </si>
+  <si>
+    <t>23eaf7fc-a6ca-40a3-87c5-257dca174595</t>
+  </si>
+  <si>
+    <t>424e8423-e43b-48e8-ad19-821014020860</t>
+  </si>
+  <si>
+    <t>6add9957-7a8c-469f-83da-ff169b0f2050</t>
+  </si>
+  <si>
+    <t>a8d715f7-82f5-4df4-9308-0d33c4c1eaa2</t>
+  </si>
+  <si>
+    <t>c5ad38ca-1303-43d2-adee-04bb0e3268f6</t>
+  </si>
+  <si>
+    <t>Museum de Kantfabriek</t>
+  </si>
+  <si>
+    <t>Rijksmuseum Amsterdam</t>
+  </si>
+  <si>
+    <t>Honig Breethuis</t>
+  </si>
+  <si>
+    <t>Nationaal Onderduikmuseum</t>
+  </si>
+  <si>
+    <t>Comenius Museum</t>
+  </si>
+  <si>
+    <t>Louwman Museum</t>
+  </si>
+  <si>
+    <t>Koninklijk Paleis Amsterdam</t>
+  </si>
+  <si>
+    <t>Stedelijk Museum Alkmaar</t>
+  </si>
+  <si>
+    <t>f05af616-d419-463e-89da-c107b2f20129</t>
+  </si>
+  <si>
+    <t>a42cba4d-03ab-449a-8fb5-a24fb363afa5</t>
+  </si>
+  <si>
+    <t>971a3945-faba-4021-8d5b-5b6fcd124640</t>
+  </si>
+  <si>
+    <t>Museum Het Valkhof</t>
+  </si>
+  <si>
+    <t>Belasting &amp; Douane Museum</t>
+  </si>
+  <si>
+    <t>Zuiderzeemuseum</t>
+  </si>
+  <si>
+    <t>550e313e-c3f0-406c-b4d3-01dbce024096</t>
+  </si>
+  <si>
+    <t>8f9a43db-d28a-4857-b4e5-2f128210a7ee</t>
+  </si>
+  <si>
+    <t>b9fa7554-70fd-4a40-8515-55ff3895e129</t>
+  </si>
+  <si>
+    <t>4f05881b-f742-480c-b13d-91d99c6fc4a2</t>
+  </si>
+  <si>
+    <t>Museum Collectie Brands</t>
+  </si>
+  <si>
+    <t>Museum 't Oude Slot</t>
+  </si>
+  <si>
+    <t>t Fiskershúske</t>
+  </si>
+  <si>
+    <t>Veenkoloniaal Museum</t>
+  </si>
+  <si>
+    <t>naval</t>
+  </si>
+  <si>
+    <t>d280a91d-ebc1-4607-afb9-e38a67c862d0</t>
+  </si>
+  <si>
+    <t>a2040f47-849b-4ca6-967e-adee1ee5a930</t>
+  </si>
+  <si>
+    <t>8fae9e9b-5c62-477b-9ccc-d9d3ec1d695c</t>
+  </si>
+  <si>
+    <t>dffe8ae8-e39f-49d2-a41b-004775a406a8</t>
+  </si>
+  <si>
+    <t>5ea552c8-0db1-4e75-b6b0-d5b5933a5f2f</t>
+  </si>
+  <si>
+    <t>Wereldmuseum Rotterdam</t>
+  </si>
+  <si>
+    <t>TextielMuseum</t>
+  </si>
+  <si>
+    <t>Nederlands Zilvermuseum</t>
+  </si>
+  <si>
+    <t>Portugese Synagoge Amsterdam</t>
+  </si>
+  <si>
+    <t>Limburgs Museum</t>
+  </si>
+  <si>
+    <t>d1e42c4d-d176-4833-98a8-a3fb4a725b91</t>
+  </si>
+  <si>
+    <t>e89e2757-e3e7-4d22-bba5-58f4164a0105</t>
   </si>
   <si>
     <t>4b596778-4379-48da-a946-0d04e39e3cea</t>
   </si>
   <si>
-    <t>832cd1d6-c933-4279-8ae6-1e3fa38853a2</t>
-  </si>
-  <si>
-    <t>7810d0eb-0034-457b-9cf7-ae7aa21e104f</t>
-  </si>
-  <si>
-    <t>f42e58c1-d6e6-4bdb-aa51-e0af569e31df</t>
-  </si>
-  <si>
-    <t>23eaf7fc-a6ca-40a3-87c5-257dca174595</t>
-  </si>
-  <si>
-    <t>424e8423-e43b-48e8-ad19-821014020860</t>
-  </si>
-  <si>
-    <t>c5ad38ca-1303-43d2-adee-04bb0e3268f6</t>
-  </si>
-  <si>
-    <t>a8d715f7-82f5-4df4-9308-0d33c4c1eaa2</t>
+    <t>Museumpark Archeon</t>
+  </si>
+  <si>
+    <t>Museum Staphorst</t>
+  </si>
+  <si>
+    <t>Museum Het Pakhuis</t>
+  </si>
+  <si>
+    <t>621c0554-f8d1-454c-9218-e60683a536ee</t>
+  </si>
+  <si>
+    <t>1de93dee-f6b5-4a1c-8d7f-e896df26a694</t>
+  </si>
+  <si>
+    <t>mij | museum ijsselstein</t>
+  </si>
+  <si>
+    <t>Literatuurmuseum</t>
   </si>
   <si>
     <t>1e3aaa11-c04f-43bd-9707-58401ee41056</t>
   </si>
   <si>
-    <t>Universiteitsmuseum Groningen</t>
-  </si>
-  <si>
-    <t>Museum Het Pakhuis</t>
-  </si>
-  <si>
-    <t>Museum de Kantfabriek</t>
-  </si>
-  <si>
-    <t>Rijksmuseum Amsterdam</t>
-  </si>
-  <si>
-    <t>Joods Historisch Museum</t>
-  </si>
-  <si>
-    <t>Nationaal Onderduikmuseum</t>
-  </si>
-  <si>
-    <t>Comenius Museum</t>
-  </si>
-  <si>
-    <t>Stedelijk Museum Alkmaar</t>
-  </si>
-  <si>
-    <t>Koninklijk Paleis Amsterdam</t>
+    <t>b2398575-3c86-42a2-b07c-886384eb9add</t>
+  </si>
+  <si>
+    <t>682197a8-0359-4094-8281-ffa059de480f</t>
   </si>
   <si>
     <t>Hunebedcentrum</t>
   </si>
   <si>
-    <t>naval</t>
-  </si>
-  <si>
-    <t>cfb73ba4-3c32-49fe-95f6-39f1b18f8894</t>
-  </si>
-  <si>
-    <t>5a140fbe-2efc-42e1-ad57-c01ac3a7b409</t>
-  </si>
-  <si>
-    <t>c96d0dd3-36c3-4b3c-b3ea-d11ca9840207</t>
-  </si>
-  <si>
-    <t>b2398575-3c86-42a2-b07c-886384eb9add</t>
-  </si>
-  <si>
-    <t>0aa09155-261b-4190-a561-e593ca877e24</t>
-  </si>
-  <si>
-    <t>9231914a-1dac-4afe-b28a-cc37ee7c5bfd</t>
-  </si>
-  <si>
-    <t>9c4bddf8-9bef-46cb-a2ef-5f13ba85884f</t>
-  </si>
-  <si>
-    <t>971a3945-faba-4021-8d5b-5b6fcd124640</t>
-  </si>
-  <si>
-    <t>Nationaal Vlechtmuseum</t>
-  </si>
-  <si>
-    <t>Observeum Burgum</t>
-  </si>
-  <si>
-    <t>Museum De Zwarte Tulp</t>
-  </si>
-  <si>
     <t>Museum Wierdenland Ezinge</t>
   </si>
   <si>
-    <t>Museum voor anatomie en pathologie</t>
-  </si>
-  <si>
-    <t>Streek &amp; Landbouwmuseum Goemanszorg</t>
-  </si>
-  <si>
-    <t>Nederlands Watermuseum</t>
-  </si>
-  <si>
-    <t>Zuiderzeemuseum</t>
+    <t>Museum Catharijneconvent</t>
+  </si>
+  <si>
+    <t>visual</t>
   </si>
   <si>
     <t>ethnology</t>
   </si>
   <si>
-    <t>a42cba4d-03ab-449a-8fb5-a24fb363afa5</t>
-  </si>
-  <si>
-    <t>f05af616-d419-463e-89da-c107b2f20129</t>
-  </si>
-  <si>
-    <t>a2040f47-849b-4ca6-967e-adee1ee5a930</t>
-  </si>
-  <si>
-    <t>8fae9e9b-5c62-477b-9ccc-d9d3ec1d695c</t>
-  </si>
-  <si>
-    <t>8f9a43db-d28a-4857-b4e5-2f128210a7ee</t>
-  </si>
-  <si>
-    <t>550e313e-c3f0-406c-b4d3-01dbce024096</t>
-  </si>
-  <si>
-    <t>Belasting &amp; Douane Museum</t>
-  </si>
-  <si>
-    <t>Museum Het Valkhof</t>
-  </si>
-  <si>
-    <t>TextielMuseum</t>
-  </si>
-  <si>
-    <t>Nederlands Zilvermuseum</t>
-  </si>
-  <si>
-    <t>Museum 't Oude Slot</t>
-  </si>
-  <si>
-    <t>Museum Collectie Brands</t>
-  </si>
-  <si>
-    <t>nature</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>c2d8b6c2-92ae-46c2-9890-8696aaec6e1d</t>
-  </si>
-  <si>
-    <t>cc12b367-a374-4c8a-bd04-8b24e412af3c</t>
-  </si>
-  <si>
-    <t>c40020e4-d23b-4607-9145-7aa020866c04</t>
-  </si>
-  <si>
-    <t>3f224a07-d3c3-4467-ab27-2d0f4d6705dc</t>
-  </si>
-  <si>
-    <t>38107554-9018-4367-b2ad-58797d7806c5</t>
-  </si>
-  <si>
-    <t>dc084656-3e15-4519-9412-4753da0bc11b</t>
-  </si>
-  <si>
-    <t>f9878ebc-3a04-4842-8da9-af3775d99441</t>
-  </si>
-  <si>
-    <t>Openluchtmuseum Ootmarsum</t>
-  </si>
-  <si>
-    <t>Nederlands Openluchtmuseum</t>
-  </si>
-  <si>
-    <t>Huygens' Hofwijck</t>
-  </si>
-  <si>
-    <t>Openluchtmuseum en Themapark De Spitkeet</t>
-  </si>
-  <si>
-    <t>Openluchtmuseum Het Hoogeland</t>
-  </si>
-  <si>
-    <t>Museumpark Orientalis</t>
-  </si>
-  <si>
-    <t>Nederlands Bakkerijmuseum</t>
-  </si>
-  <si>
-    <t>621c0554-f8d1-454c-9218-e60683a536ee</t>
-  </si>
-  <si>
-    <t>ce103d55-e291-48e2-ab48-7e464261985f</t>
-  </si>
-  <si>
-    <t>mij | museum ijsselstein</t>
-  </si>
-  <si>
-    <t>Museum Maassluis</t>
+    <t>798b12be-0127-4f41-91df-1a5e71af1e37</t>
+  </si>
+  <si>
+    <t>e4b87fd4-b473-4137-abdc-c6854b3dd7a4</t>
+  </si>
+  <si>
+    <t>ddc06b8b-9dd1-4768-be15-75477b0f104a</t>
+  </si>
+  <si>
+    <t>3caa2392-510f-4c85-a489-b83e8200ff90</t>
+  </si>
+  <si>
+    <t>689733f3-0f0a-411d-b5b4-a33dd39639f0</t>
+  </si>
+  <si>
+    <t>De Looierij</t>
+  </si>
+  <si>
+    <t>Nederlands Artillerie Museum</t>
+  </si>
+  <si>
+    <t>Spoorwegmuseum</t>
+  </si>
+  <si>
+    <t>Luchtvaartmuseum Aviodrome</t>
+  </si>
+  <si>
+    <t>Museum Weesp</t>
   </si>
 </sst>
 </file>
@@ -634,13 +701,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>17</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -648,54 +715,54 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -703,36 +770,36 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>230</v>
+        <v>471</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="C5" t="s">
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
+      <c r="F5">
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>468</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="C6" t="s">
+        <v>21</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -740,54 +807,54 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>21</v>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>75</v>
+        <v>419</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="C7" t="s">
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>22</v>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>133</v>
+        <v>450</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>23</v>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -795,36 +862,36 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>386</v>
+        <v>468</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="C9" t="s">
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
-        <v>24</v>
+      <c r="F9">
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>328</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="C10" t="s">
+        <v>25</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -832,8 +899,8 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" t="s">
-        <v>25</v>
+      <c r="F10">
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -841,42 +908,42 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>65</v>
+        <v>478</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="C11" t="s">
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
-        <v>26</v>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
       <c r="D12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -886,241 +953,277 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>407</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>177</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>37</v>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>393</v>
+        <v>230</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>38</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>38</v>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>450</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>347</v>
+        <v>468</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>39</v>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="C7" t="s">
+        <v>40</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>40</v>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>272</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="C8" t="s">
+        <v>41</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>41</v>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>301</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="C9" t="s">
+        <v>42</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>65</v>
+        <v>328</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
-        <v>26</v>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>290</v>
+        <v>386</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
       </c>
       <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>4</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
+      <c r="G12">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1141,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -1155,47 +1258,47 @@
         <v>230</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>316</v>
+        <v>468</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1203,33 +1306,33 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>462</v>
+        <v>386</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1237,50 +1340,50 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>268</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>54</v>
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>266</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>55</v>
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1288,16 +1391,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>169</v>
+        <v>250</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1308,27 +1411,27 @@
         <v>290</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="D12">
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1337,6 +1440,458 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>230</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>316</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>290</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>462</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>169</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>468</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>266</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>361</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>450</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>157</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>468</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>230</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>417</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>450</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>313</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>462</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>268</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>440</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>185</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>290</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -1349,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -1363,59 +1918,59 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>43</v>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>66</v>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>67</v>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1423,19 +1978,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>382</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>68</v>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1443,19 +1998,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>126</v>
+        <v>448</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>69</v>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1463,79 +2018,79 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>107</v>
+        <v>468</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>70</v>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>71</v>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>462</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
-        <v>20</v>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1543,19 +2098,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>482</v>
+        <v>386</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>72</v>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1565,14 +2120,14 @@
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="D12">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1580,207 +2135,803 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>468</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>194</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>450</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>462</v>
+      </c>
+      <c r="B9" t="s">
         <v>45</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>462</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>266</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>169</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>194</v>
-      </c>
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>75</v>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>403</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>76</v>
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>313</v>
+        <v>230</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>450</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>354</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>419</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>471</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>186</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>347</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>202</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>250</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>232</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>230</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>446</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>436</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>316</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>204</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>450</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/validation_excel.xlsx
+++ b/validation_excel.xlsx
@@ -7,22 +7,22 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="drgqybcoei" sheetId="1" r:id="rId1"/>
-    <sheet name="vzsjfkabit" sheetId="2" r:id="rId2"/>
-    <sheet name="uljcqzbgfo" sheetId="3" r:id="rId3"/>
-    <sheet name="lswdazrkcf" sheetId="4" r:id="rId4"/>
-    <sheet name="fwdrkvuham" sheetId="5" r:id="rId5"/>
-    <sheet name="ifvtpwrsqm" sheetId="6" r:id="rId6"/>
-    <sheet name="vnhzfmtkqe" sheetId="7" r:id="rId7"/>
-    <sheet name="zlvndycprt" sheetId="8" r:id="rId8"/>
-    <sheet name="zuqixbypom" sheetId="9" r:id="rId9"/>
+    <sheet name="jcfkzlaygq" sheetId="1" r:id="rId1"/>
+    <sheet name="jfcdbzxwyg" sheetId="2" r:id="rId2"/>
+    <sheet name="awfmohbzds" sheetId="3" r:id="rId3"/>
+    <sheet name="imkeztnpwo" sheetId="4" r:id="rId4"/>
+    <sheet name="njiptxqrco" sheetId="5" r:id="rId5"/>
+    <sheet name="pofhjriasl" sheetId="6" r:id="rId6"/>
+    <sheet name="lpbaxngedz" sheetId="7" r:id="rId7"/>
+    <sheet name="ydwiotbnle" sheetId="8" r:id="rId8"/>
+    <sheet name="iwjaochfeq" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="151">
   <si>
     <t>translationSetId</t>
   </si>
@@ -30,292 +30,451 @@
     <t>museumname</t>
   </si>
   <si>
+    <t>gardens</t>
+  </si>
+  <si>
+    <t>cluster0</t>
+  </si>
+  <si>
+    <t>weelchair</t>
+  </si>
+  <si>
+    <t>museum total</t>
+  </si>
+  <si>
+    <t>feature total</t>
+  </si>
+  <si>
+    <t>1335f2de-05b0-4351-8cae-1cb1263b3791</t>
+  </si>
+  <si>
+    <t>0d9b11c5-4842-4d97-b105-908bca7c8fa5</t>
+  </si>
+  <si>
+    <t>9dd3fd7c-9281-4e0b-a661-909e597b93ee</t>
+  </si>
+  <si>
+    <t>8fae9e9b-5c62-477b-9ccc-d9d3ec1d695c</t>
+  </si>
+  <si>
+    <t>971a3945-faba-4021-8d5b-5b6fcd124640</t>
+  </si>
+  <si>
+    <t>c5f783ea-db8b-4a9b-93bb-311d51687719</t>
+  </si>
+  <si>
+    <t>c7858635-11bf-473d-9dc7-7336bbbd29ca</t>
+  </si>
+  <si>
+    <t>d9c3694b-8999-46e7-9264-66e2ca190c86</t>
+  </si>
+  <si>
+    <t>93062e20-901e-46a2-b1f4-107cd82e7ed5</t>
+  </si>
+  <si>
+    <t>c4cc477e-1442-4ef9-96ea-539e46356b07</t>
+  </si>
+  <si>
+    <t>Het Scheepvaartmuseum</t>
+  </si>
+  <si>
+    <t>Museum Speelklok</t>
+  </si>
+  <si>
+    <t>Museum Rotterdam</t>
+  </si>
+  <si>
+    <t>Nederlands Zilvermuseum</t>
+  </si>
+  <si>
+    <t>Zuiderzeemuseum</t>
+  </si>
+  <si>
+    <t>Het Utrechts Archief</t>
+  </si>
+  <si>
+    <t>Maritiem Museum Rotterdam</t>
+  </si>
+  <si>
+    <t>Veiligheidsmuseum PIT</t>
+  </si>
+  <si>
+    <t>Nationaal Tinnen Figuren Museum</t>
+  </si>
+  <si>
+    <t>Louis Couperus Museum</t>
+  </si>
+  <si>
+    <t>cluster5</t>
+  </si>
+  <si>
+    <t>cluster8</t>
+  </si>
+  <si>
+    <t>92652b8f-7600-4bee-8640-1c40b21a32cf</t>
+  </si>
+  <si>
+    <t>aa8279d3-78cf-4af8-8f83-24dd44caabd6</t>
+  </si>
+  <si>
+    <t>d579493e-5364-4327-b712-d231508db640</t>
+  </si>
+  <si>
+    <t>7a6bb20e-440e-428d-a735-e417b43aa8a9</t>
+  </si>
+  <si>
+    <t>64669da3-83b4-421d-a306-4f0c6669d7db</t>
+  </si>
+  <si>
+    <t>630f0ad9-d790-4a77-a847-e7acb31be6d8</t>
+  </si>
+  <si>
+    <t>e16ae770-865f-47d5-99ff-6ae6fc094217</t>
+  </si>
+  <si>
+    <t>addebae4-6756-4fe4-b59c-1aac2d80ab8e</t>
+  </si>
+  <si>
+    <t>1f85673a-ba18-4aaf-821a-baf56c7efea7</t>
+  </si>
+  <si>
+    <t>a8d715f7-82f5-4df4-9308-0d33c4c1eaa2</t>
+  </si>
+  <si>
+    <t>Museum Van Loon</t>
+  </si>
+  <si>
+    <t>Amsterdam Museum</t>
+  </si>
+  <si>
+    <t>Portrait Gallery of the 17th Century</t>
+  </si>
+  <si>
+    <t>Museum Willet-Holthuysen</t>
+  </si>
+  <si>
+    <t>Grachtenmuseum Amsterdam</t>
+  </si>
+  <si>
+    <t>De Hollandsche Manege</t>
+  </si>
+  <si>
+    <t>Weegschaal Museum Naarden</t>
+  </si>
+  <si>
+    <t>Museum Paulina Bisdom van Vliet</t>
+  </si>
+  <si>
+    <t>Hermitage Amsterdam</t>
+  </si>
+  <si>
+    <t>Koninklijk Paleis Amsterdam</t>
+  </si>
+  <si>
+    <t>cluster7</t>
+  </si>
+  <si>
+    <t>1a918684-33d5-485a-80b7-90a8086803ef</t>
+  </si>
+  <si>
+    <t>56518036-a7ca-43fe-b010-2ddfcec6aca3</t>
+  </si>
+  <si>
+    <t>5ebaa739-b1a4-443b-9cde-6c0b18e81607</t>
+  </si>
+  <si>
+    <t>053014de-f18f-45e3-8dc6-c3f907646311</t>
+  </si>
+  <si>
+    <t>b95305d9-cc57-498c-8819-c1983713d181</t>
+  </si>
+  <si>
+    <t>10f92ca9-be97-40d2-b2ad-cb99d5154981</t>
+  </si>
+  <si>
+    <t>078fe561-4a1d-4712-b204-11913bdd57b4</t>
+  </si>
+  <si>
+    <t>e9ad0209-89ad-4e53-a353-b7328562f8e6</t>
+  </si>
+  <si>
+    <t>fb5c119f-f4a1-411c-a943-f609fcb5f5f3</t>
+  </si>
+  <si>
+    <t>f9d5d350-4bab-499a-8f53-2af1f6f25601</t>
+  </si>
+  <si>
+    <t>Buitenplaats Kasteel Wijlre</t>
+  </si>
+  <si>
+    <t>Mauritshuis</t>
+  </si>
+  <si>
+    <t>Museon</t>
+  </si>
+  <si>
+    <t>Museum De Domijnen, afdeling Hedendaagse Kunst</t>
+  </si>
+  <si>
+    <t>Keramiekcentrum Tiendschuur Tegelen</t>
+  </si>
+  <si>
+    <t>Marres, Huis voor Hedendaagse Kunst</t>
+  </si>
+  <si>
+    <t>Kunstvereniging Diepenheim</t>
+  </si>
+  <si>
+    <t>Universiteitsmuseum Groningen</t>
+  </si>
+  <si>
+    <t>Museum Swaensteyn</t>
+  </si>
+  <si>
+    <t>Trompenburg Tuinen &amp; Arboretum</t>
+  </si>
+  <si>
+    <t>lecture</t>
+  </si>
+  <si>
+    <t>educative</t>
+  </si>
+  <si>
+    <t>1d9c7610-ab17-4f68-ae48-9cefefc32b20</t>
+  </si>
+  <si>
+    <t>3caa2392-510f-4c85-a489-b83e8200ff90</t>
+  </si>
+  <si>
+    <t>9231914a-1dac-4afe-b28a-cc37ee7c5bfd</t>
+  </si>
+  <si>
+    <t>ddc06b8b-9dd1-4768-be15-75477b0f104a</t>
+  </si>
+  <si>
+    <t>27b9e34f-c9da-47d5-a22e-d5140b9b0d18</t>
+  </si>
+  <si>
+    <t>a42cba4d-03ab-449a-8fb5-a24fb363afa5</t>
+  </si>
+  <si>
+    <t>1cf7d97e-57d6-4550-be98-8d19ea5ac3a5</t>
+  </si>
+  <si>
+    <t>Continium discovery center</t>
+  </si>
+  <si>
+    <t>Luchtvaartmuseum Aviodrome</t>
+  </si>
+  <si>
+    <t>Streek &amp; Landbouwmuseum Goemanszorg</t>
+  </si>
+  <si>
+    <t>Spoorwegmuseum</t>
+  </si>
+  <si>
+    <t>Museum Sterrenwacht Sonnenborgh</t>
+  </si>
+  <si>
+    <t>Belasting &amp; Douane Museum</t>
+  </si>
+  <si>
+    <t>Pieter Vermeulen Museum</t>
+  </si>
+  <si>
+    <t>cluster6</t>
+  </si>
+  <si>
+    <t>openair</t>
+  </si>
+  <si>
+    <t>visual</t>
+  </si>
+  <si>
+    <t>b5d597b1-730f-402b-bc6e-a86cadebd973</t>
+  </si>
+  <si>
+    <t>f57a988c-883e-4f75-8dc6-7d5f76d005e5</t>
+  </si>
+  <si>
+    <t>673dafbb-e461-4ffb-ab3c-f857358c77a7</t>
+  </si>
+  <si>
+    <t>15521a24-f0fd-49c2-beef-dcfcca62e2e7</t>
+  </si>
+  <si>
+    <t>38a216ca-1fee-45de-9b0a-ae857342d0c0</t>
+  </si>
+  <si>
+    <t>d393d962-7ee9-411b-8c60-c0879d6e3fd7</t>
+  </si>
+  <si>
+    <t>944a4c15-58c0-44dc-8f8a-c65b44179c16</t>
+  </si>
+  <si>
+    <t>Geologisch Museum Hofland</t>
+  </si>
+  <si>
+    <t>Museum Terra Maris</t>
+  </si>
+  <si>
+    <t>Cube Design Museum</t>
+  </si>
+  <si>
+    <t>De Kuiperij</t>
+  </si>
+  <si>
+    <t>Botanische Tuin TU Delft</t>
+  </si>
+  <si>
+    <t>Micropia</t>
+  </si>
+  <si>
+    <t>Missiemuseum Steyl</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>cc12b367-a374-4c8a-bd04-8b24e412af3c</t>
+  </si>
+  <si>
+    <t>b0654f59-55d5-4c74-8420-3d3938f861e2</t>
+  </si>
+  <si>
+    <t>9c4bddf8-9bef-46cb-a2ef-5f13ba85884f</t>
+  </si>
+  <si>
+    <t>f7e3d4b2-ae53-41c5-aa79-cfa323796de7</t>
+  </si>
+  <si>
+    <t>044424ba-e4e7-4de8-b88c-ccaf14cf4c59</t>
+  </si>
+  <si>
+    <t>1de93dee-f6b5-4a1c-8d7f-e896df26a694</t>
+  </si>
+  <si>
+    <t>7433df02-7eee-40bc-a5c5-98fb3373fbc9</t>
+  </si>
+  <si>
+    <t>Nederlands Openluchtmuseum</t>
+  </si>
+  <si>
+    <t>Botanische Tuin De Kruidhof</t>
+  </si>
+  <si>
+    <t>Nederlands Watermuseum</t>
+  </si>
+  <si>
+    <t>Paviljoen Nederland en WOI</t>
+  </si>
+  <si>
+    <t>Honig Breethuis</t>
+  </si>
+  <si>
+    <t>Literatuurmuseum</t>
+  </si>
+  <si>
+    <t>Museum Tot Zover</t>
+  </si>
+  <si>
+    <t>cluster2</t>
+  </si>
+  <si>
     <t>culture</t>
   </si>
   <si>
-    <t>history</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>museum total</t>
-  </si>
-  <si>
-    <t>feature total</t>
-  </si>
-  <si>
-    <t>944a4c15-58c0-44dc-8f8a-c65b44179c16</t>
-  </si>
-  <si>
-    <t>38a216ca-1fee-45de-9b0a-ae857342d0c0</t>
-  </si>
-  <si>
-    <t>b5d597b1-730f-402b-bc6e-a86cadebd973</t>
-  </si>
-  <si>
-    <t>f57a988c-883e-4f75-8dc6-7d5f76d005e5</t>
-  </si>
-  <si>
-    <t>5ebaa739-b1a4-443b-9cde-6c0b18e81607</t>
-  </si>
-  <si>
-    <t>d393d962-7ee9-411b-8c60-c0879d6e3fd7</t>
-  </si>
-  <si>
-    <t>e9ad0209-89ad-4e53-a353-b7328562f8e6</t>
-  </si>
-  <si>
-    <t>f42e58c1-d6e6-4bdb-aa51-e0af569e31df</t>
-  </si>
-  <si>
-    <t>1cf7d97e-57d6-4550-be98-8d19ea5ac3a5</t>
-  </si>
-  <si>
-    <t>f82c9249-ae42-4690-bcbc-9db3f55db2d0</t>
-  </si>
-  <si>
-    <t>Missiemuseum Steyl</t>
-  </si>
-  <si>
-    <t>Botanische Tuin TU Delft</t>
-  </si>
-  <si>
-    <t>Geologisch Museum Hofland</t>
-  </si>
-  <si>
-    <t>Museum Terra Maris</t>
-  </si>
-  <si>
-    <t>Museon</t>
-  </si>
-  <si>
-    <t>Micropia</t>
-  </si>
-  <si>
-    <t>Universiteitsmuseum Groningen</t>
-  </si>
-  <si>
-    <t>Joods Historisch Museum</t>
-  </si>
-  <si>
-    <t>Pieter Vermeulen Museum</t>
-  </si>
-  <si>
-    <t>Natuurmuseum Fryslân</t>
-  </si>
-  <si>
-    <t>openair</t>
-  </si>
-  <si>
-    <t>library</t>
-  </si>
-  <si>
     <t>832cd1d6-c933-4279-8ae6-1e3fa38853a2</t>
   </si>
   <si>
+    <t>a6fc14aa-84ee-4c59-8801-baf29c2557dd</t>
+  </si>
+  <si>
+    <t>cda45f48-2deb-4062-bd6f-ad4da92c8114</t>
+  </si>
+  <si>
+    <t>fbd0f6e4-105e-4b04-bf93-9b06a40e7204</t>
+  </si>
+  <si>
+    <t>424e8423-e43b-48e8-ad19-821014020860</t>
+  </si>
+  <si>
+    <t>Museum de Kantfabriek</t>
+  </si>
+  <si>
+    <t>Museum Huis Doorn</t>
+  </si>
+  <si>
+    <t>Museummolen en molenwinkel De Walvisch</t>
+  </si>
+  <si>
+    <t>Historisch Museum Haarlemmermeer</t>
+  </si>
+  <si>
+    <t>Comenius Museum</t>
+  </si>
+  <si>
+    <t>fde0ab33-2d85-4f29-a0fb-6e13a6f52142</t>
+  </si>
+  <si>
+    <t>3b0519ec-a69a-4f2f-8ea2-a5ac4428d096</t>
+  </si>
+  <si>
+    <t>39c0d207-7edc-4e51-82bb-e0d0da3576d4</t>
+  </si>
+  <si>
+    <t>368607b3-1085-4b46-9f41-3204431b0545</t>
+  </si>
+  <si>
+    <t>Het Nieuwe Instituut</t>
+  </si>
+  <si>
+    <t>Nederlands Fotomuseum</t>
+  </si>
+  <si>
+    <t>Stadhuismuseum Zierikzee</t>
+  </si>
+  <si>
+    <t>Historiehuis Roermond</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t>a2040f47-849b-4ca6-967e-adee1ee5a930</t>
+  </si>
+  <si>
+    <t>682197a8-0359-4094-8281-ffa059de480f</t>
+  </si>
+  <si>
+    <t>798b12be-0127-4f41-91df-1a5e71af1e37</t>
+  </si>
+  <si>
     <t>7810d0eb-0034-457b-9cf7-ae7aa21e104f</t>
   </si>
   <si>
-    <t>044424ba-e4e7-4de8-b88c-ccaf14cf4c59</t>
-  </si>
-  <si>
-    <t>23eaf7fc-a6ca-40a3-87c5-257dca174595</t>
-  </si>
-  <si>
-    <t>424e8423-e43b-48e8-ad19-821014020860</t>
+    <t>95a74653-495e-4420-82e0-a1a6195f974d</t>
   </si>
   <si>
     <t>6add9957-7a8c-469f-83da-ff169b0f2050</t>
   </si>
   <si>
-    <t>a8d715f7-82f5-4df4-9308-0d33c4c1eaa2</t>
-  </si>
-  <si>
-    <t>c5ad38ca-1303-43d2-adee-04bb0e3268f6</t>
-  </si>
-  <si>
-    <t>Museum de Kantfabriek</t>
+    <t>TextielMuseum</t>
+  </si>
+  <si>
+    <t>Museum Catharijneconvent</t>
+  </si>
+  <si>
+    <t>De Looierij</t>
   </si>
   <si>
     <t>Rijksmuseum Amsterdam</t>
   </si>
   <si>
-    <t>Honig Breethuis</t>
-  </si>
-  <si>
-    <t>Nationaal Onderduikmuseum</t>
-  </si>
-  <si>
-    <t>Comenius Museum</t>
+    <t>Museum De Lakenhal</t>
   </si>
   <si>
     <t>Louwman Museum</t>
-  </si>
-  <si>
-    <t>Koninklijk Paleis Amsterdam</t>
-  </si>
-  <si>
-    <t>Stedelijk Museum Alkmaar</t>
-  </si>
-  <si>
-    <t>f05af616-d419-463e-89da-c107b2f20129</t>
-  </si>
-  <si>
-    <t>a42cba4d-03ab-449a-8fb5-a24fb363afa5</t>
-  </si>
-  <si>
-    <t>971a3945-faba-4021-8d5b-5b6fcd124640</t>
-  </si>
-  <si>
-    <t>Museum Het Valkhof</t>
-  </si>
-  <si>
-    <t>Belasting &amp; Douane Museum</t>
-  </si>
-  <si>
-    <t>Zuiderzeemuseum</t>
-  </si>
-  <si>
-    <t>550e313e-c3f0-406c-b4d3-01dbce024096</t>
-  </si>
-  <si>
-    <t>8f9a43db-d28a-4857-b4e5-2f128210a7ee</t>
-  </si>
-  <si>
-    <t>b9fa7554-70fd-4a40-8515-55ff3895e129</t>
-  </si>
-  <si>
-    <t>4f05881b-f742-480c-b13d-91d99c6fc4a2</t>
-  </si>
-  <si>
-    <t>Museum Collectie Brands</t>
-  </si>
-  <si>
-    <t>Museum 't Oude Slot</t>
-  </si>
-  <si>
-    <t>t Fiskershúske</t>
-  </si>
-  <si>
-    <t>Veenkoloniaal Museum</t>
-  </si>
-  <si>
-    <t>naval</t>
-  </si>
-  <si>
-    <t>d280a91d-ebc1-4607-afb9-e38a67c862d0</t>
-  </si>
-  <si>
-    <t>a2040f47-849b-4ca6-967e-adee1ee5a930</t>
-  </si>
-  <si>
-    <t>8fae9e9b-5c62-477b-9ccc-d9d3ec1d695c</t>
-  </si>
-  <si>
-    <t>dffe8ae8-e39f-49d2-a41b-004775a406a8</t>
-  </si>
-  <si>
-    <t>5ea552c8-0db1-4e75-b6b0-d5b5933a5f2f</t>
-  </si>
-  <si>
-    <t>Wereldmuseum Rotterdam</t>
-  </si>
-  <si>
-    <t>TextielMuseum</t>
-  </si>
-  <si>
-    <t>Nederlands Zilvermuseum</t>
-  </si>
-  <si>
-    <t>Portugese Synagoge Amsterdam</t>
-  </si>
-  <si>
-    <t>Limburgs Museum</t>
-  </si>
-  <si>
-    <t>d1e42c4d-d176-4833-98a8-a3fb4a725b91</t>
-  </si>
-  <si>
-    <t>e89e2757-e3e7-4d22-bba5-58f4164a0105</t>
-  </si>
-  <si>
-    <t>4b596778-4379-48da-a946-0d04e39e3cea</t>
-  </si>
-  <si>
-    <t>Museumpark Archeon</t>
-  </si>
-  <si>
-    <t>Museum Staphorst</t>
-  </si>
-  <si>
-    <t>Museum Het Pakhuis</t>
-  </si>
-  <si>
-    <t>621c0554-f8d1-454c-9218-e60683a536ee</t>
-  </si>
-  <si>
-    <t>1de93dee-f6b5-4a1c-8d7f-e896df26a694</t>
-  </si>
-  <si>
-    <t>mij | museum ijsselstein</t>
-  </si>
-  <si>
-    <t>Literatuurmuseum</t>
-  </si>
-  <si>
-    <t>1e3aaa11-c04f-43bd-9707-58401ee41056</t>
-  </si>
-  <si>
-    <t>b2398575-3c86-42a2-b07c-886384eb9add</t>
-  </si>
-  <si>
-    <t>682197a8-0359-4094-8281-ffa059de480f</t>
-  </si>
-  <si>
-    <t>Hunebedcentrum</t>
-  </si>
-  <si>
-    <t>Museum Wierdenland Ezinge</t>
-  </si>
-  <si>
-    <t>Museum Catharijneconvent</t>
-  </si>
-  <si>
-    <t>visual</t>
-  </si>
-  <si>
-    <t>ethnology</t>
-  </si>
-  <si>
-    <t>798b12be-0127-4f41-91df-1a5e71af1e37</t>
-  </si>
-  <si>
-    <t>e4b87fd4-b473-4137-abdc-c6854b3dd7a4</t>
-  </si>
-  <si>
-    <t>ddc06b8b-9dd1-4768-be15-75477b0f104a</t>
-  </si>
-  <si>
-    <t>3caa2392-510f-4c85-a489-b83e8200ff90</t>
-  </si>
-  <si>
-    <t>689733f3-0f0a-411d-b5b4-a33dd39639f0</t>
-  </si>
-  <si>
-    <t>De Looierij</t>
-  </si>
-  <si>
-    <t>Nederlands Artillerie Museum</t>
-  </si>
-  <si>
-    <t>Spoorwegmuseum</t>
-  </si>
-  <si>
-    <t>Luchtvaartmuseum Aviodrome</t>
-  </si>
-  <si>
-    <t>Museum Weesp</t>
   </si>
 </sst>
 </file>
@@ -701,7 +860,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>280</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -716,15 +875,15 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -739,15 +898,15 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -759,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -770,7 +929,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>471</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -785,15 +944,15 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>186</v>
+        <v>290</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -816,7 +975,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -839,7 +998,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>450</v>
+        <v>388</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -848,7 +1007,7 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -857,12 +1016,12 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -871,13 +1030,13 @@
         <v>24</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -885,7 +1044,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>57</v>
+        <v>277</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -908,7 +1067,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>478</v>
+        <v>384</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -923,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -934,16 +1093,16 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -981,22 +1140,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1004,13 +1163,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>450</v>
+        <v>332</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1027,16 +1186,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>230</v>
+        <v>423</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1045,27 +1204,27 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>235</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1073,16 +1232,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>468</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1091,41 +1250,41 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>133</v>
+        <v>443</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1142,22 +1301,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>208</v>
+        <v>340</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1165,13 +1324,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>328</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1180,33 +1339,33 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>386</v>
+        <v>328</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1217,13 +1376,13 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1233,13 +1392,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1247,38 +1406,44 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>230</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>468</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1286,152 +1451,182 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>359</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
         <v>450</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>462</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>386</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>316</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>133</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>75</v>
-      </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>250</v>
+        <v>488</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>290</v>
+        <v>483</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1441,13 +1636,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1455,154 +1650,262 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>430</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>272</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>436</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>316</v>
       </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>290</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>462</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>169</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>468</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>266</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>361</v>
-      </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>57</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>450</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>157</v>
-      </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>0</v>
       </c>
     </row>
@@ -1627,13 +1930,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1641,13 +1944,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>468</v>
+        <v>354</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1656,44 +1959,44 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1702,21 +2005,21 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1733,13 +2036,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>313</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1748,24 +2051,24 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1774,18 +2077,18 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>268</v>
+        <v>384</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1794,21 +2097,21 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>440</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1817,21 +2120,21 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>185</v>
+        <v>419</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1840,21 +2143,21 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1863,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1880,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1893,13 +2196,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1910,61 +2213,70 @@
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1975,16 +2287,19 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>75</v>
+        <v>344</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1995,79 +2310,91 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>448</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>468</v>
+        <v>301</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>133</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2075,16 +2402,19 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2095,16 +2425,19 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>386</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2115,19 +2448,25 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2151,13 +2490,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2165,13 +2504,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>185</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2188,13 +2527,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>440</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2203,21 +2542,21 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2226,21 +2565,21 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>313</v>
+        <v>436</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2249,21 +2588,21 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>194</v>
+        <v>324</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2280,13 +2619,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2303,13 +2642,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2326,36 +2665,36 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2364,30 +2703,30 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>230</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2398,16 +2737,16 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2417,13 +2756,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2431,27 +2770,24 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>450</v>
+        <v>494</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2462,22 +2798,19 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>354</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2485,137 +2818,119 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>419</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>173</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>316</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>471</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>186</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>110</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>60</v>
-      </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>65</v>
+        <v>436</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2623,22 +2938,19 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>347</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2646,22 +2958,19 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>202</v>
+        <v>401</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2669,25 +2978,19 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2711,10 +3014,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -2722,39 +3025,39 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2762,19 +3065,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2782,79 +3085,79 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>436</v>
+        <v>230</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>119</v>
+        <v>284</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2862,59 +3165,59 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>450</v>
+        <v>186</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2925,13 +3228,13 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/validation_excel.xlsx
+++ b/validation_excel.xlsx
@@ -7,22 +7,23 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="jcfkzlaygq" sheetId="1" r:id="rId1"/>
-    <sheet name="jfcdbzxwyg" sheetId="2" r:id="rId2"/>
-    <sheet name="awfmohbzds" sheetId="3" r:id="rId3"/>
-    <sheet name="imkeztnpwo" sheetId="4" r:id="rId4"/>
-    <sheet name="njiptxqrco" sheetId="5" r:id="rId5"/>
-    <sheet name="pofhjriasl" sheetId="6" r:id="rId6"/>
-    <sheet name="lpbaxngedz" sheetId="7" r:id="rId7"/>
-    <sheet name="ydwiotbnle" sheetId="8" r:id="rId8"/>
-    <sheet name="iwjaochfeq" sheetId="9" r:id="rId9"/>
+    <sheet name="ibgwhcnkjd" sheetId="1" r:id="rId1"/>
+    <sheet name="mjugnarodb" sheetId="2" r:id="rId2"/>
+    <sheet name="bowxujcrqs" sheetId="3" r:id="rId3"/>
+    <sheet name="elxsivkfcn" sheetId="4" r:id="rId4"/>
+    <sheet name="qhrlazecip" sheetId="5" r:id="rId5"/>
+    <sheet name="jzcgoxqrbu" sheetId="6" r:id="rId6"/>
+    <sheet name="mqorxzhnfl" sheetId="7" r:id="rId7"/>
+    <sheet name="jbwsyquaox" sheetId="8" r:id="rId8"/>
+    <sheet name="fhcozyikgx" sheetId="9" r:id="rId9"/>
+    <sheet name="rqfuydwano" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="137">
   <si>
     <t>translationSetId</t>
   </si>
@@ -30,451 +31,409 @@
     <t>museumname</t>
   </si>
   <si>
+    <t>cluster2</t>
+  </si>
+  <si>
+    <t>exhibition</t>
+  </si>
+  <si>
+    <t>museum total</t>
+  </si>
+  <si>
+    <t>feature total</t>
+  </si>
+  <si>
+    <t>a42cba4d-03ab-449a-8fb5-a24fb363afa5</t>
+  </si>
+  <si>
+    <t>0d9b11c5-4842-4d97-b105-908bca7c8fa5</t>
+  </si>
+  <si>
+    <t>ddc06b8b-9dd1-4768-be15-75477b0f104a</t>
+  </si>
+  <si>
+    <t>d9c3694b-8999-46e7-9264-66e2ca190c86</t>
+  </si>
+  <si>
+    <t>8fae9e9b-5c62-477b-9ccc-d9d3ec1d695c</t>
+  </si>
+  <si>
+    <t>7810d0eb-0034-457b-9cf7-ae7aa21e104f</t>
+  </si>
+  <si>
+    <t>97dca6c1-6b1a-4ffe-a048-83ecce6707a5</t>
+  </si>
+  <si>
+    <t>3caa2392-510f-4c85-a489-b83e8200ff90</t>
+  </si>
+  <si>
+    <t>424e8423-e43b-48e8-ad19-821014020860</t>
+  </si>
+  <si>
+    <t>9231914a-1dac-4afe-b28a-cc37ee7c5bfd</t>
+  </si>
+  <si>
+    <t>Belasting &amp; Douane Museum</t>
+  </si>
+  <si>
+    <t>Museum Speelklok</t>
+  </si>
+  <si>
+    <t>Spoorwegmuseum</t>
+  </si>
+  <si>
+    <t>Veiligheidsmuseum PIT</t>
+  </si>
+  <si>
+    <t>Nederlands Zilvermuseum</t>
+  </si>
+  <si>
+    <t>Rijksmuseum Amsterdam</t>
+  </si>
+  <si>
+    <t>Beeld en Geluid Den Haag</t>
+  </si>
+  <si>
+    <t>Luchtvaartmuseum Aviodrome</t>
+  </si>
+  <si>
+    <t>Comenius Museum</t>
+  </si>
+  <si>
+    <t>Streek &amp; Landbouwmuseum Goemanszorg</t>
+  </si>
+  <si>
+    <t>parking</t>
+  </si>
+  <si>
     <t>gardens</t>
   </si>
   <si>
-    <t>cluster0</t>
-  </si>
-  <si>
-    <t>weelchair</t>
-  </si>
-  <si>
-    <t>museum total</t>
-  </si>
-  <si>
-    <t>feature total</t>
-  </si>
-  <si>
-    <t>1335f2de-05b0-4351-8cae-1cb1263b3791</t>
-  </si>
-  <si>
-    <t>0d9b11c5-4842-4d97-b105-908bca7c8fa5</t>
-  </si>
-  <si>
-    <t>9dd3fd7c-9281-4e0b-a661-909e597b93ee</t>
-  </si>
-  <si>
-    <t>8fae9e9b-5c62-477b-9ccc-d9d3ec1d695c</t>
+    <t>f42e58c1-d6e6-4bdb-aa51-e0af569e31df</t>
+  </si>
+  <si>
+    <t>c5ad38ca-1303-43d2-adee-04bb0e3268f6</t>
+  </si>
+  <si>
+    <t>a2040f47-849b-4ca6-967e-adee1ee5a930</t>
+  </si>
+  <si>
+    <t>e9ad0209-89ad-4e53-a353-b7328562f8e6</t>
+  </si>
+  <si>
+    <t>95a74653-495e-4420-82e0-a1a6195f974d</t>
+  </si>
+  <si>
+    <t>621c0554-f8d1-454c-9218-e60683a536ee</t>
+  </si>
+  <si>
+    <t>550e313e-c3f0-406c-b4d3-01dbce024096</t>
+  </si>
+  <si>
+    <t>Joods Historisch Museum</t>
+  </si>
+  <si>
+    <t>Stedelijk Museum Alkmaar</t>
+  </si>
+  <si>
+    <t>TextielMuseum</t>
+  </si>
+  <si>
+    <t>Universiteitsmuseum Groningen</t>
+  </si>
+  <si>
+    <t>Museum De Lakenhal</t>
+  </si>
+  <si>
+    <t>mij | museum ijsselstein</t>
+  </si>
+  <si>
+    <t>Museum Collectie Brands</t>
+  </si>
+  <si>
+    <t>cluster5</t>
+  </si>
+  <si>
+    <t>aa8279d3-78cf-4af8-8f83-24dd44caabd6</t>
+  </si>
+  <si>
+    <t>1f85673a-ba18-4aaf-821a-baf56c7efea7</t>
+  </si>
+  <si>
+    <t>90ebf3e8-d8ee-4b3b-9e62-3a17130bf3bf</t>
+  </si>
+  <si>
+    <t>d545be8a-48d2-4af9-862d-d26a821787e0</t>
+  </si>
+  <si>
+    <t>64669da3-83b4-421d-a306-4f0c6669d7db</t>
+  </si>
+  <si>
+    <t>a28f5f86-7181-44e8-9dcc-12ca3f94b4a7</t>
+  </si>
+  <si>
+    <t>4c123cbb-afaa-4150-94ff-4b94dfc60b4f</t>
+  </si>
+  <si>
+    <t>49ad034f-9424-4d89-aab5-8df3c2112ff4</t>
+  </si>
+  <si>
+    <t>bf8b8c20-c838-44b9-a574-303d4b3e66e8</t>
+  </si>
+  <si>
+    <t>Amsterdam Museum</t>
+  </si>
+  <si>
+    <t>Hermitage Amsterdam</t>
+  </si>
+  <si>
+    <t>Museum Ons' Lieve Heer op Solder</t>
+  </si>
+  <si>
+    <t>Paleis Het Loo</t>
+  </si>
+  <si>
+    <t>Grachtenmuseum Amsterdam</t>
+  </si>
+  <si>
+    <t>Heerenveen Museum</t>
+  </si>
+  <si>
+    <t>Museum Helmond</t>
+  </si>
+  <si>
+    <t>Markiezenhof</t>
+  </si>
+  <si>
+    <t>Teylers Museum</t>
+  </si>
+  <si>
+    <t>lecture</t>
+  </si>
+  <si>
+    <t>culture</t>
+  </si>
+  <si>
+    <t>5ebaa739-b1a4-443b-9cde-6c0b18e81607</t>
+  </si>
+  <si>
+    <t>6add9957-7a8c-469f-83da-ff169b0f2050</t>
+  </si>
+  <si>
+    <t>d94a7ad1-c6b5-45e5-9b97-4597799ea184</t>
+  </si>
+  <si>
+    <t>Museon</t>
+  </si>
+  <si>
+    <t>Louwman Museum</t>
+  </si>
+  <si>
+    <t>Nederlands Steendrukmuseum</t>
+  </si>
+  <si>
+    <t>visual</t>
+  </si>
+  <si>
+    <t>castles</t>
+  </si>
+  <si>
+    <t>b0654f59-55d5-4c74-8420-3d3938f861e2</t>
+  </si>
+  <si>
+    <t>630f0ad9-d790-4a77-a847-e7acb31be6d8</t>
+  </si>
+  <si>
+    <t>f03acb0d-bfe6-45f8-847c-d3fa96aabe1f</t>
+  </si>
+  <si>
+    <t>9c4bddf8-9bef-46cb-a2ef-5f13ba85884f</t>
+  </si>
+  <si>
+    <t>02f0dab3-4ee5-4c38-a0b8-ae02ed4b06b3</t>
+  </si>
+  <si>
+    <t>cc12b367-a374-4c8a-bd04-8b24e412af3c</t>
+  </si>
+  <si>
+    <t>ba678427-5609-42b1-91e2-fd5c845d42c6</t>
+  </si>
+  <si>
+    <t>f13e960f-96aa-4a92-97d7-4047e7c837d9</t>
+  </si>
+  <si>
+    <t>1a918684-33d5-485a-80b7-90a8086803ef</t>
+  </si>
+  <si>
+    <t>Botanische Tuin De Kruidhof</t>
+  </si>
+  <si>
+    <t>De Hollandsche Manege</t>
+  </si>
+  <si>
+    <t>Museumstoomtram Hoorn-Medemblik</t>
+  </si>
+  <si>
+    <t>Nederlands Watermuseum</t>
+  </si>
+  <si>
+    <t>Botanische Tuinen Utrecht</t>
+  </si>
+  <si>
+    <t>Nederlands Openluchtmuseum</t>
+  </si>
+  <si>
+    <t>Historische Tuin Aalsmeer</t>
+  </si>
+  <si>
+    <t>Nationaal Bomenmuseum Gimborn</t>
+  </si>
+  <si>
+    <t>Buitenplaats Kasteel Wijlre</t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>2fc39c27-ca42-462c-b8a5-6b8fdb927961</t>
+  </si>
+  <si>
+    <t>71728b2c-4b17-4855-8663-98a7788acaf0</t>
+  </si>
+  <si>
+    <t>2aab8e4a-58db-4bf4-afe8-06a444b8e56c</t>
+  </si>
+  <si>
+    <t>d7f027c1-49fa-4fa8-a661-43598ed47263</t>
+  </si>
+  <si>
+    <t>1259b27a-48fb-48d4-adbb-31329be57921</t>
+  </si>
+  <si>
+    <t>f76d5813-3efb-44c8-beff-5d2a569d7eb3</t>
+  </si>
+  <si>
+    <t>aa54b14e-fe16-4424-9be9-ca9d8ef84fa7</t>
+  </si>
+  <si>
+    <t>Van Abbemuseum</t>
+  </si>
+  <si>
+    <t>Groninger Museum</t>
+  </si>
+  <si>
+    <t>Keramiekmuseum Princessehof</t>
+  </si>
+  <si>
+    <t>Kunsthal  Rotterdam</t>
+  </si>
+  <si>
+    <t>Stadsmuseum Harderwijk</t>
+  </si>
+  <si>
+    <t>Museum Gouda</t>
+  </si>
+  <si>
+    <t>Van Gogh Museum</t>
+  </si>
+  <si>
+    <t>cluster3</t>
+  </si>
+  <si>
+    <t>architectonic</t>
+  </si>
+  <si>
+    <t>e89e2757-e3e7-4d22-bba5-58f4164a0105</t>
+  </si>
+  <si>
+    <t>832cd1d6-c933-4279-8ae6-1e3fa38853a2</t>
+  </si>
+  <si>
+    <t>80d22ad4-79ea-4688-97ec-4c93dc366e48</t>
+  </si>
+  <si>
+    <t>23eaf7fc-a6ca-40a3-87c5-257dca174595</t>
+  </si>
+  <si>
+    <t>778fb79a-2b1c-4696-8909-018dee25142a</t>
+  </si>
+  <si>
+    <t>61de31c6-e1a1-41e6-aca7-9a593e331c42</t>
+  </si>
+  <si>
+    <t>abaad182-4619-449e-96a5-4583f8701299</t>
+  </si>
+  <si>
+    <t>Museum Staphorst</t>
+  </si>
+  <si>
+    <t>Museum de Kantfabriek</t>
+  </si>
+  <si>
+    <t>Industrieel Museum Zeeland</t>
+  </si>
+  <si>
+    <t>Nationaal Onderduikmuseum</t>
+  </si>
+  <si>
+    <t>Huizer Museum</t>
+  </si>
+  <si>
+    <t>Graafs Museum</t>
+  </si>
+  <si>
+    <t>Museum 'De Tien Malen'</t>
+  </si>
+  <si>
+    <t>military</t>
+  </si>
+  <si>
+    <t>b67b0651-df2f-48c8-9793-1024a0c9901e</t>
+  </si>
+  <si>
+    <t>38609b0d-35a3-43ce-9896-d7c42996b702</t>
+  </si>
+  <si>
+    <t>6c17c8de-2dd0-4670-b55d-402b84e26787</t>
+  </si>
+  <si>
+    <t>Kasteel de Haar</t>
+  </si>
+  <si>
+    <t>Museum Slager</t>
+  </si>
+  <si>
+    <t>Historisch Museum De Bevelanden</t>
+  </si>
+  <si>
+    <t>c40020e4-d23b-4607-9145-7aa020866c04</t>
   </si>
   <si>
     <t>971a3945-faba-4021-8d5b-5b6fcd124640</t>
   </si>
   <si>
-    <t>c5f783ea-db8b-4a9b-93bb-311d51687719</t>
-  </si>
-  <si>
-    <t>c7858635-11bf-473d-9dc7-7336bbbd29ca</t>
-  </si>
-  <si>
-    <t>d9c3694b-8999-46e7-9264-66e2ca190c86</t>
+    <t>d280a91d-ebc1-4607-afb9-e38a67c862d0</t>
+  </si>
+  <si>
+    <t>eba73114-b030-49d1-9108-e60ea8670b3a</t>
   </si>
   <si>
     <t>93062e20-901e-46a2-b1f4-107cd82e7ed5</t>
   </si>
   <si>
-    <t>c4cc477e-1442-4ef9-96ea-539e46356b07</t>
-  </si>
-  <si>
-    <t>Het Scheepvaartmuseum</t>
-  </si>
-  <si>
-    <t>Museum Speelklok</t>
-  </si>
-  <si>
-    <t>Museum Rotterdam</t>
-  </si>
-  <si>
-    <t>Nederlands Zilvermuseum</t>
+    <t>Huygens' Hofwijck</t>
   </si>
   <si>
     <t>Zuiderzeemuseum</t>
   </si>
   <si>
-    <t>Het Utrechts Archief</t>
-  </si>
-  <si>
-    <t>Maritiem Museum Rotterdam</t>
-  </si>
-  <si>
-    <t>Veiligheidsmuseum PIT</t>
+    <t>Wereldmuseum Rotterdam</t>
+  </si>
+  <si>
+    <t>Museum Het Schip</t>
   </si>
   <si>
     <t>Nationaal Tinnen Figuren Museum</t>
-  </si>
-  <si>
-    <t>Louis Couperus Museum</t>
-  </si>
-  <si>
-    <t>cluster5</t>
-  </si>
-  <si>
-    <t>cluster8</t>
-  </si>
-  <si>
-    <t>92652b8f-7600-4bee-8640-1c40b21a32cf</t>
-  </si>
-  <si>
-    <t>aa8279d3-78cf-4af8-8f83-24dd44caabd6</t>
-  </si>
-  <si>
-    <t>d579493e-5364-4327-b712-d231508db640</t>
-  </si>
-  <si>
-    <t>7a6bb20e-440e-428d-a735-e417b43aa8a9</t>
-  </si>
-  <si>
-    <t>64669da3-83b4-421d-a306-4f0c6669d7db</t>
-  </si>
-  <si>
-    <t>630f0ad9-d790-4a77-a847-e7acb31be6d8</t>
-  </si>
-  <si>
-    <t>e16ae770-865f-47d5-99ff-6ae6fc094217</t>
-  </si>
-  <si>
-    <t>addebae4-6756-4fe4-b59c-1aac2d80ab8e</t>
-  </si>
-  <si>
-    <t>1f85673a-ba18-4aaf-821a-baf56c7efea7</t>
-  </si>
-  <si>
-    <t>a8d715f7-82f5-4df4-9308-0d33c4c1eaa2</t>
-  </si>
-  <si>
-    <t>Museum Van Loon</t>
-  </si>
-  <si>
-    <t>Amsterdam Museum</t>
-  </si>
-  <si>
-    <t>Portrait Gallery of the 17th Century</t>
-  </si>
-  <si>
-    <t>Museum Willet-Holthuysen</t>
-  </si>
-  <si>
-    <t>Grachtenmuseum Amsterdam</t>
-  </si>
-  <si>
-    <t>De Hollandsche Manege</t>
-  </si>
-  <si>
-    <t>Weegschaal Museum Naarden</t>
-  </si>
-  <si>
-    <t>Museum Paulina Bisdom van Vliet</t>
-  </si>
-  <si>
-    <t>Hermitage Amsterdam</t>
-  </si>
-  <si>
-    <t>Koninklijk Paleis Amsterdam</t>
-  </si>
-  <si>
-    <t>cluster7</t>
-  </si>
-  <si>
-    <t>1a918684-33d5-485a-80b7-90a8086803ef</t>
-  </si>
-  <si>
-    <t>56518036-a7ca-43fe-b010-2ddfcec6aca3</t>
-  </si>
-  <si>
-    <t>5ebaa739-b1a4-443b-9cde-6c0b18e81607</t>
-  </si>
-  <si>
-    <t>053014de-f18f-45e3-8dc6-c3f907646311</t>
-  </si>
-  <si>
-    <t>b95305d9-cc57-498c-8819-c1983713d181</t>
-  </si>
-  <si>
-    <t>10f92ca9-be97-40d2-b2ad-cb99d5154981</t>
-  </si>
-  <si>
-    <t>078fe561-4a1d-4712-b204-11913bdd57b4</t>
-  </si>
-  <si>
-    <t>e9ad0209-89ad-4e53-a353-b7328562f8e6</t>
-  </si>
-  <si>
-    <t>fb5c119f-f4a1-411c-a943-f609fcb5f5f3</t>
-  </si>
-  <si>
-    <t>f9d5d350-4bab-499a-8f53-2af1f6f25601</t>
-  </si>
-  <si>
-    <t>Buitenplaats Kasteel Wijlre</t>
-  </si>
-  <si>
-    <t>Mauritshuis</t>
-  </si>
-  <si>
-    <t>Museon</t>
-  </si>
-  <si>
-    <t>Museum De Domijnen, afdeling Hedendaagse Kunst</t>
-  </si>
-  <si>
-    <t>Keramiekcentrum Tiendschuur Tegelen</t>
-  </si>
-  <si>
-    <t>Marres, Huis voor Hedendaagse Kunst</t>
-  </si>
-  <si>
-    <t>Kunstvereniging Diepenheim</t>
-  </si>
-  <si>
-    <t>Universiteitsmuseum Groningen</t>
-  </si>
-  <si>
-    <t>Museum Swaensteyn</t>
-  </si>
-  <si>
-    <t>Trompenburg Tuinen &amp; Arboretum</t>
-  </si>
-  <si>
-    <t>lecture</t>
-  </si>
-  <si>
-    <t>educative</t>
-  </si>
-  <si>
-    <t>1d9c7610-ab17-4f68-ae48-9cefefc32b20</t>
-  </si>
-  <si>
-    <t>3caa2392-510f-4c85-a489-b83e8200ff90</t>
-  </si>
-  <si>
-    <t>9231914a-1dac-4afe-b28a-cc37ee7c5bfd</t>
-  </si>
-  <si>
-    <t>ddc06b8b-9dd1-4768-be15-75477b0f104a</t>
-  </si>
-  <si>
-    <t>27b9e34f-c9da-47d5-a22e-d5140b9b0d18</t>
-  </si>
-  <si>
-    <t>a42cba4d-03ab-449a-8fb5-a24fb363afa5</t>
-  </si>
-  <si>
-    <t>1cf7d97e-57d6-4550-be98-8d19ea5ac3a5</t>
-  </si>
-  <si>
-    <t>Continium discovery center</t>
-  </si>
-  <si>
-    <t>Luchtvaartmuseum Aviodrome</t>
-  </si>
-  <si>
-    <t>Streek &amp; Landbouwmuseum Goemanszorg</t>
-  </si>
-  <si>
-    <t>Spoorwegmuseum</t>
-  </si>
-  <si>
-    <t>Museum Sterrenwacht Sonnenborgh</t>
-  </si>
-  <si>
-    <t>Belasting &amp; Douane Museum</t>
-  </si>
-  <si>
-    <t>Pieter Vermeulen Museum</t>
-  </si>
-  <si>
-    <t>cluster6</t>
-  </si>
-  <si>
-    <t>openair</t>
-  </si>
-  <si>
-    <t>visual</t>
-  </si>
-  <si>
-    <t>b5d597b1-730f-402b-bc6e-a86cadebd973</t>
-  </si>
-  <si>
-    <t>f57a988c-883e-4f75-8dc6-7d5f76d005e5</t>
-  </si>
-  <si>
-    <t>673dafbb-e461-4ffb-ab3c-f857358c77a7</t>
-  </si>
-  <si>
-    <t>15521a24-f0fd-49c2-beef-dcfcca62e2e7</t>
-  </si>
-  <si>
-    <t>38a216ca-1fee-45de-9b0a-ae857342d0c0</t>
-  </si>
-  <si>
-    <t>d393d962-7ee9-411b-8c60-c0879d6e3fd7</t>
-  </si>
-  <si>
-    <t>944a4c15-58c0-44dc-8f8a-c65b44179c16</t>
-  </si>
-  <si>
-    <t>Geologisch Museum Hofland</t>
-  </si>
-  <si>
-    <t>Museum Terra Maris</t>
-  </si>
-  <si>
-    <t>Cube Design Museum</t>
-  </si>
-  <si>
-    <t>De Kuiperij</t>
-  </si>
-  <si>
-    <t>Botanische Tuin TU Delft</t>
-  </si>
-  <si>
-    <t>Micropia</t>
-  </si>
-  <si>
-    <t>Missiemuseum Steyl</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>cc12b367-a374-4c8a-bd04-8b24e412af3c</t>
-  </si>
-  <si>
-    <t>b0654f59-55d5-4c74-8420-3d3938f861e2</t>
-  </si>
-  <si>
-    <t>9c4bddf8-9bef-46cb-a2ef-5f13ba85884f</t>
-  </si>
-  <si>
-    <t>f7e3d4b2-ae53-41c5-aa79-cfa323796de7</t>
-  </si>
-  <si>
-    <t>044424ba-e4e7-4de8-b88c-ccaf14cf4c59</t>
-  </si>
-  <si>
-    <t>1de93dee-f6b5-4a1c-8d7f-e896df26a694</t>
-  </si>
-  <si>
-    <t>7433df02-7eee-40bc-a5c5-98fb3373fbc9</t>
-  </si>
-  <si>
-    <t>Nederlands Openluchtmuseum</t>
-  </si>
-  <si>
-    <t>Botanische Tuin De Kruidhof</t>
-  </si>
-  <si>
-    <t>Nederlands Watermuseum</t>
-  </si>
-  <si>
-    <t>Paviljoen Nederland en WOI</t>
-  </si>
-  <si>
-    <t>Honig Breethuis</t>
-  </si>
-  <si>
-    <t>Literatuurmuseum</t>
-  </si>
-  <si>
-    <t>Museum Tot Zover</t>
-  </si>
-  <si>
-    <t>cluster2</t>
-  </si>
-  <si>
-    <t>culture</t>
-  </si>
-  <si>
-    <t>832cd1d6-c933-4279-8ae6-1e3fa38853a2</t>
-  </si>
-  <si>
-    <t>a6fc14aa-84ee-4c59-8801-baf29c2557dd</t>
-  </si>
-  <si>
-    <t>cda45f48-2deb-4062-bd6f-ad4da92c8114</t>
-  </si>
-  <si>
-    <t>fbd0f6e4-105e-4b04-bf93-9b06a40e7204</t>
-  </si>
-  <si>
-    <t>424e8423-e43b-48e8-ad19-821014020860</t>
-  </si>
-  <si>
-    <t>Museum de Kantfabriek</t>
-  </si>
-  <si>
-    <t>Museum Huis Doorn</t>
-  </si>
-  <si>
-    <t>Museummolen en molenwinkel De Walvisch</t>
-  </si>
-  <si>
-    <t>Historisch Museum Haarlemmermeer</t>
-  </si>
-  <si>
-    <t>Comenius Museum</t>
-  </si>
-  <si>
-    <t>fde0ab33-2d85-4f29-a0fb-6e13a6f52142</t>
-  </si>
-  <si>
-    <t>3b0519ec-a69a-4f2f-8ea2-a5ac4428d096</t>
-  </si>
-  <si>
-    <t>39c0d207-7edc-4e51-82bb-e0d0da3576d4</t>
-  </si>
-  <si>
-    <t>368607b3-1085-4b46-9f41-3204431b0545</t>
-  </si>
-  <si>
-    <t>Het Nieuwe Instituut</t>
-  </si>
-  <si>
-    <t>Nederlands Fotomuseum</t>
-  </si>
-  <si>
-    <t>Stadhuismuseum Zierikzee</t>
-  </si>
-  <si>
-    <t>Historiehuis Roermond</t>
-  </si>
-  <si>
-    <t>science</t>
-  </si>
-  <si>
-    <t>a2040f47-849b-4ca6-967e-adee1ee5a930</t>
-  </si>
-  <si>
-    <t>682197a8-0359-4094-8281-ffa059de480f</t>
-  </si>
-  <si>
-    <t>798b12be-0127-4f41-91df-1a5e71af1e37</t>
-  </si>
-  <si>
-    <t>7810d0eb-0034-457b-9cf7-ae7aa21e104f</t>
-  </si>
-  <si>
-    <t>95a74653-495e-4420-82e0-a1a6195f974d</t>
-  </si>
-  <si>
-    <t>6add9957-7a8c-469f-83da-ff169b0f2050</t>
-  </si>
-  <si>
-    <t>TextielMuseum</t>
-  </si>
-  <si>
-    <t>Museum Catharijneconvent</t>
-  </si>
-  <si>
-    <t>De Looierij</t>
-  </si>
-  <si>
-    <t>Rijksmuseum Amsterdam</t>
-  </si>
-  <si>
-    <t>Museum De Lakenhal</t>
-  </si>
-  <si>
-    <t>Louwman Museum</t>
   </si>
 </sst>
 </file>
@@ -832,13 +791,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,42 +813,280 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>36</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>29</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>436</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>430</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>268</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>230</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>292</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>272</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>422</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>382</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -898,21 +1095,18 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -921,21 +1115,18 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>268</v>
+        <v>468</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -944,15 +1135,12 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -969,19 +1157,16 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -992,42 +1177,36 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>430</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1036,44 +1215,38 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
+        <v>454</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
         <v>277</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>384</v>
-      </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1082,27 +1255,21 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>6</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1112,13 +1279,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,263 +1293,227 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>230</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>468</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>386</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>313</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>450</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>284</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>316</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>194</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>169</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>273</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>332</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>423</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>235</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>197</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>196</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>443</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>340</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>328</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D12">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>9</v>
-      </c>
-      <c r="G12">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1406,24 +1537,24 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
+        <v>332</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1437,39 +1568,39 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>186</v>
+        <v>270</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1477,13 +1608,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>12</v>
+        <v>422</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1497,33 +1628,33 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>359</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>32</v>
+        <v>314</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1537,39 +1668,39 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>450</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1577,33 +1708,33 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>488</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>483</v>
+        <v>372</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1617,16 +1748,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1650,73 +1781,73 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>186</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>119</v>
+        <v>430</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1733,48 +1864,48 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>272</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1782,131 +1913,131 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>436</v>
+        <v>272</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>82</v>
+        <v>292</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>316</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>57</v>
+        <v>428</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1930,27 +2061,27 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1967,13 +2098,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1990,13 +2121,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2013,13 +2144,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2028,21 +2159,21 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2059,36 +2190,36 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>450</v>
+        <v>401</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>384</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2105,13 +2236,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2128,13 +2259,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2151,13 +2282,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>280</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2174,19 +2305,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2196,13 +2327,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2210,263 +2341,227 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>218</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>427</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>475</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>230</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>331</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>194</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>284</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>196</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>186</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>401</v>
-      </c>
-      <c r="B4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>344</v>
-      </c>
-      <c r="B5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>301</v>
-      </c>
-      <c r="B7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>476</v>
-      </c>
-      <c r="B8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
+      <c r="D12">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>222</v>
-      </c>
-      <c r="B11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2490,36 +2585,36 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>9</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2527,91 +2622,91 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>324</v>
+        <v>268</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2619,22 +2714,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>402</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2642,22 +2737,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>196</v>
+        <v>292</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -2665,88 +2760,88 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>489</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>316</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>133</v>
+        <v>272</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2756,13 +2851,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2770,227 +2865,263 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>448</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>250</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>248</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>468</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>450</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>133</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>227</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>193</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>336</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>494</v>
-      </c>
-      <c r="B2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>116</v>
-      </c>
-      <c r="B3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>114</v>
-      </c>
-      <c r="B4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>173</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>316</v>
-      </c>
-      <c r="B7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>436</v>
-      </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>103</v>
-      </c>
-      <c r="B10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>401</v>
-      </c>
-      <c r="B11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3014,24 +3145,24 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>313</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3045,33 +3176,33 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>202</v>
+        <v>356</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>232</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3085,13 +3216,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>430</v>
+        <v>372</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3105,13 +3236,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3128,10 +3259,10 @@
         <v>284</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3145,13 +3276,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3165,13 +3296,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>119</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3185,13 +3316,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3205,13 +3336,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>186</v>
+        <v>475</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3225,16 +3356,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/validation_excel.xlsx
+++ b/validation_excel.xlsx
@@ -7,23 +7,23 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="lomgykbjwn" sheetId="1" r:id="rId1"/>
-    <sheet name="bhwniqkdup" sheetId="2" r:id="rId2"/>
-    <sheet name="lgvbdmnftr" sheetId="3" r:id="rId3"/>
-    <sheet name="riopafylsc" sheetId="4" r:id="rId4"/>
-    <sheet name="kqdomyuazs" sheetId="5" r:id="rId5"/>
-    <sheet name="gnxwpvrjei" sheetId="6" r:id="rId6"/>
-    <sheet name="gdypavwufi" sheetId="7" r:id="rId7"/>
-    <sheet name="bvkfusozxn" sheetId="8" r:id="rId8"/>
-    <sheet name="gyjauxesrb" sheetId="9" r:id="rId9"/>
-    <sheet name="cgjzvqdikm" sheetId="10" r:id="rId10"/>
+    <sheet name="mdkhwovnzl" sheetId="1" r:id="rId1"/>
+    <sheet name="zoetwhcmip" sheetId="2" r:id="rId2"/>
+    <sheet name="zkrcjaythf" sheetId="3" r:id="rId3"/>
+    <sheet name="nubhlkgeaf" sheetId="4" r:id="rId4"/>
+    <sheet name="xbfemqdygk" sheetId="5" r:id="rId5"/>
+    <sheet name="gnypkaivdm" sheetId="6" r:id="rId6"/>
+    <sheet name="uvaijwrlmf" sheetId="7" r:id="rId7"/>
+    <sheet name="dvmtikugor" sheetId="8" r:id="rId8"/>
+    <sheet name="hsmadqzxby" sheetId="9" r:id="rId9"/>
+    <sheet name="naxcjybzgp" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="148">
   <si>
     <t>translationSetId</t>
   </si>
@@ -31,7 +31,7 @@
     <t>museumname</t>
   </si>
   <si>
-    <t>art_galleries</t>
+    <t>culture</t>
   </si>
   <si>
     <t>museum total</t>
@@ -40,469 +40,433 @@
     <t>feature total</t>
   </si>
   <si>
+    <t>5ebaa739-b1a4-443b-9cde-6c0b18e81607</t>
+  </si>
+  <si>
+    <t>630f0ad9-d790-4a77-a847-e7acb31be6d8</t>
+  </si>
+  <si>
+    <t>4f05881b-f742-480c-b13d-91d99c6fc4a2</t>
+  </si>
+  <si>
+    <t>7810d0eb-0034-457b-9cf7-ae7aa21e104f</t>
+  </si>
+  <si>
+    <t>971a3945-faba-4021-8d5b-5b6fcd124640</t>
+  </si>
+  <si>
+    <t>a42cba4d-03ab-449a-8fb5-a24fb363afa5</t>
+  </si>
+  <si>
+    <t>1de93dee-f6b5-4a1c-8d7f-e896df26a694</t>
+  </si>
+  <si>
+    <t>a2c1a9f7-97b2-493a-a04c-a760d4066ba9</t>
+  </si>
+  <si>
+    <t>9231914a-1dac-4afe-b28a-cc37ee7c5bfd</t>
+  </si>
+  <si>
+    <t>1e3aaa11-c04f-43bd-9707-58401ee41056</t>
+  </si>
+  <si>
+    <t>Museon</t>
+  </si>
+  <si>
+    <t>De Hollandsche Manege</t>
+  </si>
+  <si>
+    <t>Veenkoloniaal Museum</t>
+  </si>
+  <si>
+    <t>Rijksmuseum Amsterdam</t>
+  </si>
+  <si>
+    <t>Zuiderzeemuseum</t>
+  </si>
+  <si>
+    <t>Belasting &amp; Douane Museum</t>
+  </si>
+  <si>
+    <t>Literatuurmuseum</t>
+  </si>
+  <si>
+    <t>Museum van de Geest | Dolhuys</t>
+  </si>
+  <si>
+    <t>Streek &amp; Landbouwmuseum Goemanszorg</t>
+  </si>
+  <si>
+    <t>Hunebedcentrum</t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>e9ad0209-89ad-4e53-a353-b7328562f8e6</t>
+  </si>
+  <si>
+    <t>f42e58c1-d6e6-4bdb-aa51-e0af569e31df</t>
+  </si>
+  <si>
+    <t>424e8423-e43b-48e8-ad19-821014020860</t>
+  </si>
+  <si>
+    <t>8fae9e9b-5c62-477b-9ccc-d9d3ec1d695c</t>
+  </si>
+  <si>
+    <t>621c0554-f8d1-454c-9218-e60683a536ee</t>
+  </si>
+  <si>
+    <t>aa54b14e-fe16-4424-9be9-ca9d8ef84fa7</t>
+  </si>
+  <si>
+    <t>5a140fbe-2efc-42e1-ad57-c01ac3a7b409</t>
+  </si>
+  <si>
+    <t>Universiteitsmuseum Groningen</t>
+  </si>
+  <si>
+    <t>Joods Historisch Museum</t>
+  </si>
+  <si>
+    <t>Comenius Museum</t>
+  </si>
+  <si>
+    <t>Nederlands Zilvermuseum</t>
+  </si>
+  <si>
+    <t>mij | museum ijsselstein</t>
+  </si>
+  <si>
+    <t>Van Gogh Museum</t>
+  </si>
+  <si>
+    <t>Observeum Burgum</t>
+  </si>
+  <si>
+    <t>historic_museum</t>
+  </si>
+  <si>
+    <t>689733f3-0f0a-411d-b5b4-a33dd39639f0</t>
+  </si>
+  <si>
+    <t>682197a8-0359-4094-8281-ffa059de480f</t>
+  </si>
+  <si>
+    <t>17b0f25b-2ddc-4d69-bccc-5f1ce4ffe980</t>
+  </si>
+  <si>
+    <t>fb32cee8-c9ce-47fa-b7f0-1d0b814b759e</t>
+  </si>
+  <si>
+    <t>19c6eb6a-fbd4-4bf3-a55c-72dd68d0fbe8</t>
+  </si>
+  <si>
+    <t>b5f1962b-3709-4476-a8c7-6209ca198c7d</t>
+  </si>
+  <si>
+    <t>b8ff0361-b591-4bfb-9671-5bdb3d48c1af</t>
+  </si>
+  <si>
+    <t>53226f07-3c00-42a5-8bae-ff4c6cfa9747</t>
+  </si>
+  <si>
+    <t>209fe943-8c16-4342-888c-d752adc50e82</t>
+  </si>
+  <si>
+    <t>Museum Weesp</t>
+  </si>
+  <si>
+    <t>Museum Catharijneconvent</t>
+  </si>
+  <si>
+    <t>Museum Hoeksche Waard</t>
+  </si>
+  <si>
+    <t>Nationaal Gevangenismuseum</t>
+  </si>
+  <si>
+    <t>Landbouw-Juttersmuseum 'Swartwoude'</t>
+  </si>
+  <si>
+    <t>Museum Veenendaal</t>
+  </si>
+  <si>
+    <t>Marechausseemuseum</t>
+  </si>
+  <si>
+    <t>Museum Nienoord, Borg en Nationaal Rijtuigmuseum</t>
+  </si>
+  <si>
+    <t>Fries Verzetsmuseum</t>
+  </si>
+  <si>
+    <t>weelchair</t>
+  </si>
+  <si>
+    <t>c79c20d2-9c0c-4a88-823b-6f7842a46562</t>
+  </si>
+  <si>
+    <t>1335f2de-05b0-4351-8cae-1cb1263b3791</t>
+  </si>
+  <si>
+    <t>71728b2c-4b17-4855-8663-98a7788acaf0</t>
+  </si>
+  <si>
+    <t>f05af616-d419-463e-89da-c107b2f20129</t>
+  </si>
+  <si>
+    <t>b2c2237c-a0b5-4d94-99b9-c71b8ede2fc5</t>
+  </si>
+  <si>
+    <t>Museum Beelden aan Zee</t>
+  </si>
+  <si>
+    <t>Het Scheepvaartmuseum</t>
+  </si>
+  <si>
+    <t>Groninger Museum</t>
+  </si>
+  <si>
+    <t>Museum Het Valkhof</t>
+  </si>
+  <si>
+    <t>Stedelijk Museum Zutphen</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>4b596778-4379-48da-a946-0d04e39e3cea</t>
+  </si>
+  <si>
+    <t>832cd1d6-c933-4279-8ae6-1e3fa38853a2</t>
+  </si>
+  <si>
+    <t>d1e42c4d-d176-4833-98a8-a3fb4a725b91</t>
+  </si>
+  <si>
+    <t>c5ad38ca-1303-43d2-adee-04bb0e3268f6</t>
+  </si>
+  <si>
+    <t>095343bc-bce6-4c73-a7b2-01a75c9b2efa</t>
+  </si>
+  <si>
+    <t>a8d715f7-82f5-4df4-9308-0d33c4c1eaa2</t>
+  </si>
+  <si>
+    <t>Museum Het Pakhuis</t>
+  </si>
+  <si>
+    <t>Museum de Kantfabriek</t>
+  </si>
+  <si>
+    <t>Museumpark Archeon</t>
+  </si>
+  <si>
+    <t>Stedelijk Museum Alkmaar</t>
+  </si>
+  <si>
+    <t>NEMO Science Museum</t>
+  </si>
+  <si>
+    <t>Koninklijk Paleis Amsterdam</t>
+  </si>
+  <si>
+    <t>cluster1</t>
+  </si>
+  <si>
+    <t>d9c3694b-8999-46e7-9264-66e2ca190c86</t>
+  </si>
+  <si>
+    <t>1d9c7610-ab17-4f68-ae48-9cefefc32b20</t>
+  </si>
+  <si>
+    <t>6add9957-7a8c-469f-83da-ff169b0f2050</t>
+  </si>
+  <si>
+    <t>3caa2392-510f-4c85-a489-b83e8200ff90</t>
+  </si>
+  <si>
+    <t>f82c9249-ae42-4690-bcbc-9db3f55db2d0</t>
+  </si>
+  <si>
+    <t>15d80092-895b-45cb-aad9-b1b470cfc177</t>
+  </si>
+  <si>
+    <t>Veiligheidsmuseum PIT</t>
+  </si>
+  <si>
+    <t>Continium discovery center</t>
+  </si>
+  <si>
+    <t>Louwman Museum</t>
+  </si>
+  <si>
+    <t>Luchtvaartmuseum Aviodrome</t>
+  </si>
+  <si>
+    <t>Natuurmuseum Fryslân</t>
+  </si>
+  <si>
+    <t>Space Expo</t>
+  </si>
+  <si>
+    <t>audiotour</t>
+  </si>
+  <si>
+    <t>d579493e-5364-4327-b712-d231508db640</t>
+  </si>
+  <si>
+    <t>54f9204e-e6fd-4ea3-a352-84484292b8ba</t>
+  </si>
+  <si>
+    <t>04f3f792-3b2e-4c9a-af48-584f4dd61bfe</t>
+  </si>
+  <si>
+    <t>1f8bb764-3a9f-4159-b775-829e80c953a2</t>
+  </si>
+  <si>
+    <t>a7e42402-9eb9-4312-abf5-ae09e951e068</t>
+  </si>
+  <si>
+    <t>Portrait Gallery of the 17th Century</t>
+  </si>
+  <si>
+    <t>PreHistorisch Dorp</t>
+  </si>
+  <si>
+    <t>Kasteel Huis Bergh</t>
+  </si>
+  <si>
+    <t>Rijksmuseum Muiderslot</t>
+  </si>
+  <si>
+    <t>Airborne Museum at Hartenstein</t>
+  </si>
+  <si>
+    <t>architectonic</t>
+  </si>
+  <si>
+    <t>1cf7d97e-57d6-4550-be98-8d19ea5ac3a5</t>
+  </si>
+  <si>
+    <t>dffe8ae8-e39f-49d2-a41b-004775a406a8</t>
+  </si>
+  <si>
+    <t>f9453fa1-3fe4-4c3e-a980-174ddae906fc</t>
+  </si>
+  <si>
+    <t>abd0504d-1106-44ee-8c62-3cc937d5fd9a</t>
+  </si>
+  <si>
+    <t>eb12d0f0-4e38-4bcf-9848-0295d05335a1</t>
+  </si>
+  <si>
+    <t>742e5925-2496-45d7-a5a8-4f5925dbb2b6</t>
+  </si>
+  <si>
+    <t>f949947c-21cd-4074-bc78-c9039268ab07</t>
+  </si>
+  <si>
+    <t>af698204-4437-411f-a1a9-d5a0fe7d16bb</t>
+  </si>
+  <si>
+    <t>3f96c8bc-3397-4d76-a48a-ee33ca65a8bb</t>
+  </si>
+  <si>
+    <t>Pieter Vermeulen Museum</t>
+  </si>
+  <si>
+    <t>Portugese Synagoge Amsterdam</t>
+  </si>
+  <si>
+    <t>Embassy of the Free Mind</t>
+  </si>
+  <si>
+    <t>Stedelijk Museum Breda</t>
+  </si>
+  <si>
+    <t>Kasteelruïne - Fluweelengrot Valkenburg</t>
+  </si>
+  <si>
+    <t>Huis Verwolde</t>
+  </si>
+  <si>
+    <t>Museum Menkemaborg</t>
+  </si>
+  <si>
+    <t>Museum Veere</t>
+  </si>
+  <si>
+    <t>Sint Jan Gouda</t>
+  </si>
+  <si>
+    <t>restaurant</t>
+  </si>
+  <si>
+    <t>d280a91d-ebc1-4607-afb9-e38a67c862d0</t>
+  </si>
+  <si>
+    <t>f61643e5-0237-4536-90ef-d3e8f721de21</t>
+  </si>
+  <si>
+    <t>a2040f47-849b-4ca6-967e-adee1ee5a930</t>
+  </si>
+  <si>
+    <t>Wereldmuseum Rotterdam</t>
+  </si>
+  <si>
+    <t>Biesbosch MuseumEiland</t>
+  </si>
+  <si>
+    <t>TextielMuseum</t>
+  </si>
+  <si>
+    <t>gardens</t>
+  </si>
+  <si>
+    <t>02f0dab3-4ee5-4c38-a0b8-ae02ed4b06b3</t>
+  </si>
+  <si>
     <t>1a918684-33d5-485a-80b7-90a8086803ef</t>
   </si>
   <si>
-    <t>10f92ca9-be97-40d2-b2ad-cb99d5154981</t>
-  </si>
-  <si>
-    <t>078fe561-4a1d-4712-b204-11913bdd57b4</t>
-  </si>
-  <si>
-    <t>56518036-a7ca-43fe-b010-2ddfcec6aca3</t>
-  </si>
-  <si>
-    <t>053014de-f18f-45e3-8dc6-c3f907646311</t>
-  </si>
-  <si>
-    <t>cbebd2e6-4fd8-4bd8-a455-5310d4895828</t>
-  </si>
-  <si>
-    <t>35fbec41-a299-4e7a-ae03-a063e4d4e5f7</t>
-  </si>
-  <si>
-    <t>fde0ab33-2d85-4f29-a0fb-6e13a6f52142</t>
-  </si>
-  <si>
-    <t>b95305d9-cc57-498c-8819-c1983713d181</t>
-  </si>
-  <si>
-    <t>fb5c119f-f4a1-411c-a943-f609fcb5f5f3</t>
+    <t>b0654f59-55d5-4c74-8420-3d3938f861e2</t>
+  </si>
+  <si>
+    <t>d183dcdd-900b-4721-b8a0-c44912e8ce7f</t>
+  </si>
+  <si>
+    <t>f9d5d350-4bab-499a-8f53-2af1f6f25601</t>
+  </si>
+  <si>
+    <t>ba678427-5609-42b1-91e2-fd5c845d42c6</t>
+  </si>
+  <si>
+    <t>f13e960f-96aa-4a92-97d7-4047e7c837d9</t>
+  </si>
+  <si>
+    <t>Botanische Tuinen Utrecht</t>
   </si>
   <si>
     <t>Buitenplaats Kasteel Wijlre</t>
   </si>
   <si>
-    <t>Marres, Huis voor Hedendaagse Kunst</t>
-  </si>
-  <si>
-    <t>Kunstvereniging Diepenheim</t>
-  </si>
-  <si>
-    <t>Mauritshuis</t>
-  </si>
-  <si>
-    <t>Museum De Domijnen, afdeling Hedendaagse Kunst</t>
-  </si>
-  <si>
-    <t>De Appel</t>
-  </si>
-  <si>
-    <t>Marie Tak van Poortvliet Museum</t>
-  </si>
-  <si>
-    <t>Het Nieuwe Instituut</t>
-  </si>
-  <si>
-    <t>Keramiekcentrum Tiendschuur Tegelen</t>
-  </si>
-  <si>
-    <t>Museum Swaensteyn</t>
-  </si>
-  <si>
-    <t>architectonic</t>
-  </si>
-  <si>
-    <t>eb12d0f0-4e38-4bcf-9848-0295d05335a1</t>
-  </si>
-  <si>
-    <t>af698204-4437-411f-a1a9-d5a0fe7d16bb</t>
-  </si>
-  <si>
-    <t>abd0504d-1106-44ee-8c62-3cc937d5fd9a</t>
-  </si>
-  <si>
-    <t>1cf7d97e-57d6-4550-be98-8d19ea5ac3a5</t>
-  </si>
-  <si>
-    <t>742e5925-2496-45d7-a5a8-4f5925dbb2b6</t>
-  </si>
-  <si>
-    <t>f949947c-21cd-4074-bc78-c9039268ab07</t>
-  </si>
-  <si>
-    <t>df6d2369-9846-49ae-9a5d-ca40a6e310b8</t>
-  </si>
-  <si>
-    <t>3f96c8bc-3397-4d76-a48a-ee33ca65a8bb</t>
-  </si>
-  <si>
-    <t>f9453fa1-3fe4-4c3e-a980-174ddae906fc</t>
-  </si>
-  <si>
-    <t>dffe8ae8-e39f-49d2-a41b-004775a406a8</t>
-  </si>
-  <si>
-    <t>Kasteelruïne - Fluweelengrot Valkenburg</t>
-  </si>
-  <si>
-    <t>Museum Veere</t>
-  </si>
-  <si>
-    <t>Stedelijk Museum Breda</t>
-  </si>
-  <si>
-    <t>Pieter Vermeulen Museum</t>
-  </si>
-  <si>
-    <t>Huis Verwolde</t>
-  </si>
-  <si>
-    <t>Museum Menkemaborg</t>
-  </si>
-  <si>
-    <t>Huis van het boek</t>
-  </si>
-  <si>
-    <t>Sint Jan Gouda</t>
-  </si>
-  <si>
-    <t>Embassy of the Free Mind</t>
-  </si>
-  <si>
-    <t>Portugese Synagoge Amsterdam</t>
-  </si>
-  <si>
-    <t>historic_location</t>
-  </si>
-  <si>
-    <t>044424ba-e4e7-4de8-b88c-ccaf14cf4c59</t>
-  </si>
-  <si>
-    <t>1e3aaa11-c04f-43bd-9707-58401ee41056</t>
-  </si>
-  <si>
-    <t>630f0ad9-d790-4a77-a847-e7acb31be6d8</t>
-  </si>
-  <si>
-    <t>cda45f48-2deb-4062-bd6f-ad4da92c8114</t>
-  </si>
-  <si>
-    <t>0c2e2821-f3fd-4403-8b5a-37cb256b76a2</t>
-  </si>
-  <si>
-    <t>a6fc14aa-84ee-4c59-8801-baf29c2557dd</t>
-  </si>
-  <si>
-    <t>f7e3d4b2-ae53-41c5-aa79-cfa323796de7</t>
-  </si>
-  <si>
-    <t>cb0ac5e1-e2e8-429e-9b48-54414bf84d2b</t>
-  </si>
-  <si>
-    <t>9d6fdbeb-e330-4eb0-9fa7-cd26adfe7413</t>
-  </si>
-  <si>
-    <t>a2c1a9f7-97b2-493a-a04c-a760d4066ba9</t>
-  </si>
-  <si>
-    <t>Honig Breethuis</t>
-  </si>
-  <si>
-    <t>Hunebedcentrum</t>
-  </si>
-  <si>
-    <t>De Hollandsche Manege</t>
-  </si>
-  <si>
-    <t>Museummolen en molenwinkel De Walvisch</t>
-  </si>
-  <si>
-    <t>Kamp Westerbork</t>
-  </si>
-  <si>
-    <t>Museum Huis Doorn</t>
-  </si>
-  <si>
-    <t>Paviljoen Nederland en WOI</t>
-  </si>
-  <si>
-    <t>Museum van de Geest | Outsider Art</t>
-  </si>
-  <si>
-    <t>Museum W</t>
-  </si>
-  <si>
-    <t>Museum van de Geest | Dolhuys</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>5ebaa739-b1a4-443b-9cde-6c0b18e81607</t>
-  </si>
-  <si>
-    <t>9231914a-1dac-4afe-b28a-cc37ee7c5bfd</t>
-  </si>
-  <si>
-    <t>6add9957-7a8c-469f-83da-ff169b0f2050</t>
-  </si>
-  <si>
-    <t>d9c3694b-8999-46e7-9264-66e2ca190c86</t>
-  </si>
-  <si>
-    <t>3caa2392-510f-4c85-a489-b83e8200ff90</t>
-  </si>
-  <si>
-    <t>832cd1d6-c933-4279-8ae6-1e3fa38853a2</t>
-  </si>
-  <si>
-    <t>095343bc-bce6-4c73-a7b2-01a75c9b2efa</t>
-  </si>
-  <si>
-    <t>ddc06b8b-9dd1-4768-be15-75477b0f104a</t>
-  </si>
-  <si>
-    <t>d94a7ad1-c6b5-45e5-9b97-4597799ea184</t>
-  </si>
-  <si>
-    <t>1d9c7610-ab17-4f68-ae48-9cefefc32b20</t>
-  </si>
-  <si>
-    <t>Museon</t>
-  </si>
-  <si>
-    <t>Streek &amp; Landbouwmuseum Goemanszorg</t>
-  </si>
-  <si>
-    <t>Louwman Museum</t>
-  </si>
-  <si>
-    <t>Veiligheidsmuseum PIT</t>
-  </si>
-  <si>
-    <t>Luchtvaartmuseum Aviodrome</t>
-  </si>
-  <si>
-    <t>Museum de Kantfabriek</t>
-  </si>
-  <si>
-    <t>NEMO Science Museum</t>
-  </si>
-  <si>
-    <t>Spoorwegmuseum</t>
-  </si>
-  <si>
-    <t>Nederlands Steendrukmuseum</t>
-  </si>
-  <si>
-    <t>Continium discovery center</t>
-  </si>
-  <si>
-    <t>educative</t>
-  </si>
-  <si>
-    <t>798b12be-0127-4f41-91df-1a5e71af1e37</t>
-  </si>
-  <si>
-    <t>6c17c8de-2dd0-4670-b55d-402b84e26787</t>
-  </si>
-  <si>
-    <t>1de93dee-f6b5-4a1c-8d7f-e896df26a694</t>
-  </si>
-  <si>
-    <t>1e1dc984-631c-4c66-9ca3-b5b982fdff51</t>
-  </si>
-  <si>
-    <t>bdd23118-7948-42bd-8421-36d9ec2e423b</t>
-  </si>
-  <si>
-    <t>3f224a07-d3c3-4467-ab27-2d0f4d6705dc</t>
-  </si>
-  <si>
-    <t>a42cba4d-03ab-449a-8fb5-a24fb363afa5</t>
-  </si>
-  <si>
-    <t>97dca6c1-6b1a-4ffe-a048-83ecce6707a5</t>
-  </si>
-  <si>
-    <t>De Looierij</t>
-  </si>
-  <si>
-    <t>Historisch Museum De Bevelanden</t>
-  </si>
-  <si>
-    <t>Literatuurmuseum</t>
-  </si>
-  <si>
-    <t>Stoomtrein Katwijk Leiden</t>
-  </si>
-  <si>
-    <t>Nationaal Archief</t>
-  </si>
-  <si>
-    <t>Openluchtmuseum en Themapark De Spitkeet</t>
-  </si>
-  <si>
-    <t>Belasting &amp; Douane Museum</t>
-  </si>
-  <si>
-    <t>Beeld en Geluid Den Haag</t>
-  </si>
-  <si>
-    <t>5adfb94f-9e56-40b1-a93e-766264de3f02</t>
-  </si>
-  <si>
-    <t>Zwanenbroedershuis</t>
-  </si>
-  <si>
-    <t>library</t>
-  </si>
-  <si>
-    <t>71728b2c-4b17-4855-8663-98a7788acaf0</t>
-  </si>
-  <si>
-    <t>f76d5813-3efb-44c8-beff-5d2a569d7eb3</t>
-  </si>
-  <si>
-    <t>95a74653-495e-4420-82e0-a1a6195f974d</t>
-  </si>
-  <si>
-    <t>8fae9e9b-5c62-477b-9ccc-d9d3ec1d695c</t>
-  </si>
-  <si>
-    <t>a28f5f86-7181-44e8-9dcc-12ca3f94b4a7</t>
-  </si>
-  <si>
-    <t>38609b0d-35a3-43ce-9896-d7c42996b702</t>
-  </si>
-  <si>
-    <t>2aab8e4a-58db-4bf4-afe8-06a444b8e56c</t>
-  </si>
-  <si>
-    <t>4c123cbb-afaa-4150-94ff-4b94dfc60b4f</t>
-  </si>
-  <si>
-    <t>Groninger Museum</t>
-  </si>
-  <si>
-    <t>Museum Gouda</t>
-  </si>
-  <si>
-    <t>Museum De Lakenhal</t>
-  </si>
-  <si>
-    <t>Nederlands Zilvermuseum</t>
-  </si>
-  <si>
-    <t>Heerenveen Museum</t>
-  </si>
-  <si>
-    <t>Museum Slager</t>
-  </si>
-  <si>
-    <t>Keramiekmuseum Princessehof</t>
-  </si>
-  <si>
-    <t>Museum Helmond</t>
-  </si>
-  <si>
-    <t>castles</t>
-  </si>
-  <si>
-    <t>04f3f792-3b2e-4c9a-af48-584f4dd61bfe</t>
-  </si>
-  <si>
-    <t>1f8bb764-3a9f-4159-b775-829e80c953a2</t>
-  </si>
-  <si>
-    <t>dc333343-ecdf-4502-a6b7-35b8ba5c1684</t>
-  </si>
-  <si>
-    <t>55536edf-d8c3-4415-aef5-5ffeb76a2bd5</t>
-  </si>
-  <si>
-    <t>9f88e8ae-c589-427e-becb-1e071b215cd1</t>
-  </si>
-  <si>
-    <t>d0bf039f-cc00-4511-bb91-94ac191a3c67</t>
-  </si>
-  <si>
-    <t>30f51fcc-b373-4b85-9ba0-40d958542540</t>
-  </si>
-  <si>
-    <t>a5e644b6-829e-477a-956f-91eb4fa4e1a4</t>
-  </si>
-  <si>
-    <t>c2219eac-c939-49f6-ba34-325d739caf9b</t>
-  </si>
-  <si>
-    <t>80a37d9f-37d1-466f-96c2-b65044666fbe</t>
-  </si>
-  <si>
-    <t>Kasteel Huis Bergh</t>
-  </si>
-  <si>
-    <t>Rijksmuseum Muiderslot</t>
-  </si>
-  <si>
-    <t>Kasteel Doorwerth</t>
-  </si>
-  <si>
-    <t>Kasteel Amerongen</t>
-  </si>
-  <si>
-    <t>Kasteel Keukenhof</t>
-  </si>
-  <si>
-    <t>Kasteel Hoensbroek</t>
-  </si>
-  <si>
-    <t>Kasteel Doornenburg</t>
-  </si>
-  <si>
-    <t>Kasteel Cannenburch</t>
-  </si>
-  <si>
-    <t>Kasteel Rosendael</t>
-  </si>
-  <si>
-    <t>Kasteel Duivenvoorde</t>
-  </si>
-  <si>
-    <t>visual</t>
-  </si>
-  <si>
-    <t>aa54b14e-fe16-4424-9be9-ca9d8ef84fa7</t>
-  </si>
-  <si>
-    <t>64da5853-9fae-4bd1-a0e0-47a7c0e0db09</t>
-  </si>
-  <si>
-    <t>682197a8-0359-4094-8281-ffa059de480f</t>
-  </si>
-  <si>
-    <t>621c0554-f8d1-454c-9218-e60683a536ee</t>
-  </si>
-  <si>
-    <t>a2040f47-849b-4ca6-967e-adee1ee5a930</t>
-  </si>
-  <si>
-    <t>f42e58c1-d6e6-4bdb-aa51-e0af569e31df</t>
-  </si>
-  <si>
-    <t>Van Gogh Museum</t>
-  </si>
-  <si>
-    <t>Frans Hals Museum Hal</t>
-  </si>
-  <si>
-    <t>Museum Catharijneconvent</t>
-  </si>
-  <si>
-    <t>mij | museum ijsselstein</t>
-  </si>
-  <si>
-    <t>TextielMuseum</t>
-  </si>
-  <si>
-    <t>Joods Historisch Museum</t>
-  </si>
-  <si>
-    <t>0d9b11c5-4842-4d97-b105-908bca7c8fa5</t>
-  </si>
-  <si>
-    <t>Museum Speelklok</t>
+    <t>Botanische Tuin De Kruidhof</t>
+  </si>
+  <si>
+    <t>Fruitteeltmuseum</t>
+  </si>
+  <si>
+    <t>Trompenburg Tuinen &amp; Arboretum</t>
+  </si>
+  <si>
+    <t>Historische Tuin Aalsmeer</t>
+  </si>
+  <si>
+    <t>Nationaal Bomenmuseum Gimborn</t>
   </si>
 </sst>
 </file>
@@ -882,7 +846,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -899,7 +863,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -916,7 +880,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -933,7 +897,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -950,7 +914,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -967,7 +931,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>400</v>
+        <v>316</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -984,7 +948,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1001,7 +965,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>494</v>
+        <v>315</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1018,7 +982,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>359</v>
+        <v>272</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1027,15 +991,15 @@
         <v>23</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>488</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1044,10 +1008,10 @@
         <v>24</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1055,10 +1019,10 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1082,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1090,13 +1054,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>316</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1107,30 +1071,30 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>436</v>
+        <v>344</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1141,47 +1105,47 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>430</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>483</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1192,47 +1156,47 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>119</v>
+        <v>362</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>272</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>29</v>
+        <v>465</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1243,19 +1207,19 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1263,10 +1227,10 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1298,13 +1262,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1315,13 +1279,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>343</v>
+        <v>468</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1332,13 +1296,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>337</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1349,13 +1313,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1366,13 +1330,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>221</v>
+        <v>316</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1383,13 +1347,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>480</v>
+        <v>268</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1400,13 +1364,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>439</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1417,13 +1381,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1434,13 +1398,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>479</v>
+        <v>331</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1451,13 +1415,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>440</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1498,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1506,13 +1470,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>9</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1523,13 +1487,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1540,13 +1504,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>196</v>
+        <v>468</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1557,13 +1521,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>402</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1574,13 +1538,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>25</v>
+        <v>487</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1591,13 +1555,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>324</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1608,13 +1572,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>476</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1625,13 +1589,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1642,13 +1606,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>304</v>
+        <v>166</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1659,13 +1623,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>315</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1706,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1714,13 +1678,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>186</v>
+        <v>389</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1731,13 +1695,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>272</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1748,13 +1712,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1765,13 +1729,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1782,13 +1746,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>119</v>
+        <v>468</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1799,13 +1763,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1816,13 +1780,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1833,13 +1797,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>436</v>
+        <v>204</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1850,13 +1814,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>428</v>
+        <v>230</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1867,13 +1831,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>58</v>
+        <v>268</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1914,7 +1878,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1922,13 +1886,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1939,13 +1903,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>211</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1956,13 +1920,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>60</v>
+        <v>468</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1973,13 +1937,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>62</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1990,13 +1954,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2007,13 +1971,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>126</v>
+        <v>386</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2024,70 +1988,70 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>430</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>316</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>292</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>436</v>
+        <v>328</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2095,10 +2059,10 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2122,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2130,13 +2094,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2147,13 +2111,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>479</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2164,13 +2128,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2181,13 +2145,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>439</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2198,13 +2162,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>343</v>
+        <v>272</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2215,13 +2179,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>337</v>
+        <v>208</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2232,13 +2196,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2249,13 +2213,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>221</v>
+        <v>478</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2266,13 +2230,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>480</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2283,13 +2247,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2330,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2338,13 +2302,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>218</v>
+        <v>328</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2355,13 +2319,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>475</v>
+        <v>386</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2372,13 +2336,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>316</v>
+        <v>423</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2389,13 +2353,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>284</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2406,13 +2370,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2423,13 +2387,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>314</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2440,13 +2404,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>108</v>
+        <v>326</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2457,53 +2421,53 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>430</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>86</v>
+        <v>468</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>149</v>
+        <v>414</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2511,10 +2475,10 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2538,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2546,13 +2510,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>11</v>
+        <v>328</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2563,13 +2527,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2580,13 +2544,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2597,13 +2561,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>170</v>
+        <v>479</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2614,13 +2578,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2631,13 +2595,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2648,13 +2612,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2665,13 +2629,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>321</v>
+        <v>480</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2682,13 +2646,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2699,13 +2663,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>247</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2746,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2754,13 +2718,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2771,13 +2735,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>314</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2788,13 +2752,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>331</v>
+        <v>468</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2805,13 +2769,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>218</v>
+        <v>417</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2822,13 +2786,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2839,13 +2803,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2856,13 +2820,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>194</v>
+        <v>472</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2873,13 +2837,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2890,30 +2854,30 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>475</v>
+        <v>313</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2927,10 +2891,10 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/validation_excel.xlsx
+++ b/validation_excel.xlsx
@@ -7,23 +7,23 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="mdkhwovnzl" sheetId="1" r:id="rId1"/>
-    <sheet name="zoetwhcmip" sheetId="2" r:id="rId2"/>
-    <sheet name="zkrcjaythf" sheetId="3" r:id="rId3"/>
-    <sheet name="nubhlkgeaf" sheetId="4" r:id="rId4"/>
-    <sheet name="xbfemqdygk" sheetId="5" r:id="rId5"/>
-    <sheet name="gnypkaivdm" sheetId="6" r:id="rId6"/>
-    <sheet name="uvaijwrlmf" sheetId="7" r:id="rId7"/>
-    <sheet name="dvmtikugor" sheetId="8" r:id="rId8"/>
-    <sheet name="hsmadqzxby" sheetId="9" r:id="rId9"/>
-    <sheet name="naxcjybzgp" sheetId="10" r:id="rId10"/>
+    <sheet name="gjesufoblw" sheetId="1" r:id="rId1"/>
+    <sheet name="bmrktqyaih" sheetId="2" r:id="rId2"/>
+    <sheet name="fbetnhlvgu" sheetId="3" r:id="rId3"/>
+    <sheet name="vztngrocjb" sheetId="4" r:id="rId4"/>
+    <sheet name="hixypgktaz" sheetId="5" r:id="rId5"/>
+    <sheet name="vjckxtnyuq" sheetId="6" r:id="rId6"/>
+    <sheet name="tgywjsxkpa" sheetId="7" r:id="rId7"/>
+    <sheet name="qifnjkgemh" sheetId="8" r:id="rId8"/>
+    <sheet name="zamwdtokil" sheetId="9" r:id="rId9"/>
+    <sheet name="dxamzycpqf" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="140">
   <si>
     <t>translationSetId</t>
   </si>
@@ -31,7 +31,7 @@
     <t>museumname</t>
   </si>
   <si>
-    <t>culture</t>
+    <t>cluster6</t>
   </si>
   <si>
     <t>museum total</t>
@@ -40,433 +40,409 @@
     <t>feature total</t>
   </si>
   <si>
+    <t>e9ad0209-89ad-4e53-a353-b7328562f8e6</t>
+  </si>
+  <si>
+    <t>832cd1d6-c933-4279-8ae6-1e3fa38853a2</t>
+  </si>
+  <si>
+    <t>e89e2757-e3e7-4d22-bba5-58f4164a0105</t>
+  </si>
+  <si>
+    <t>1e3aaa11-c04f-43bd-9707-58401ee41056</t>
+  </si>
+  <si>
+    <t>abaad182-4619-449e-96a5-4583f8701299</t>
+  </si>
+  <si>
+    <t>80d22ad4-79ea-4688-97ec-4c93dc366e48</t>
+  </si>
+  <si>
+    <t>4b596778-4379-48da-a946-0d04e39e3cea</t>
+  </si>
+  <si>
+    <t>057ec8d4-db1e-4b3a-a28c-3e5af7eb18b3</t>
+  </si>
+  <si>
+    <t>d1e42c4d-d176-4833-98a8-a3fb4a725b91</t>
+  </si>
+  <si>
+    <t>b2398575-3c86-42a2-b07c-886384eb9add</t>
+  </si>
+  <si>
+    <t>Universiteitsmuseum Groningen</t>
+  </si>
+  <si>
+    <t>Museum de Kantfabriek</t>
+  </si>
+  <si>
+    <t>Museum Staphorst</t>
+  </si>
+  <si>
+    <t>Hunebedcentrum</t>
+  </si>
+  <si>
+    <t>Museum 'De Tien Malen'</t>
+  </si>
+  <si>
+    <t>Industrieel Museum Zeeland</t>
+  </si>
+  <si>
+    <t>Museum Het Pakhuis</t>
+  </si>
+  <si>
+    <t>Openluchtmuseum de Locht</t>
+  </si>
+  <si>
+    <t>Museumpark Archeon</t>
+  </si>
+  <si>
+    <t>Museum Wierdenland Ezinge</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>54f9204e-e6fd-4ea3-a352-84484292b8ba</t>
+  </si>
+  <si>
+    <t>d9c3694b-8999-46e7-9264-66e2ca190c86</t>
+  </si>
+  <si>
+    <t>095343bc-bce6-4c73-a7b2-01a75c9b2efa</t>
+  </si>
+  <si>
+    <t>4cb403ef-21c9-4731-86a2-f9f32bd44487</t>
+  </si>
+  <si>
+    <t>a42cba4d-03ab-449a-8fb5-a24fb363afa5</t>
+  </si>
+  <si>
+    <t>f82c9249-ae42-4690-bcbc-9db3f55db2d0</t>
+  </si>
+  <si>
+    <t>0d9b11c5-4842-4d97-b105-908bca7c8fa5</t>
+  </si>
+  <si>
+    <t>d0077c9a-8102-4749-ba85-fe2e8b3ef53d</t>
+  </si>
+  <si>
+    <t>PreHistorisch Dorp</t>
+  </si>
+  <si>
+    <t>Veiligheidsmuseum PIT</t>
+  </si>
+  <si>
+    <t>NEMO Science Museum</t>
+  </si>
+  <si>
+    <t>Brabants Museum Oud Oosterhout</t>
+  </si>
+  <si>
+    <t>Belasting &amp; Douane Museum</t>
+  </si>
+  <si>
+    <t>Natuurmuseum Fryslân</t>
+  </si>
+  <si>
+    <t>Museum Speelklok</t>
+  </si>
+  <si>
+    <t>GeoFort</t>
+  </si>
+  <si>
+    <t>restaurant</t>
+  </si>
+  <si>
+    <t>621c0554-f8d1-454c-9218-e60683a536ee</t>
+  </si>
+  <si>
     <t>5ebaa739-b1a4-443b-9cde-6c0b18e81607</t>
   </si>
   <si>
-    <t>630f0ad9-d790-4a77-a847-e7acb31be6d8</t>
-  </si>
-  <si>
-    <t>4f05881b-f742-480c-b13d-91d99c6fc4a2</t>
+    <t>682197a8-0359-4094-8281-ffa059de480f</t>
+  </si>
+  <si>
+    <t>d579493e-5364-4327-b712-d231508db640</t>
+  </si>
+  <si>
+    <t>95a74653-495e-4420-82e0-a1a6195f974d</t>
+  </si>
+  <si>
+    <t>a2040f47-849b-4ca6-967e-adee1ee5a930</t>
+  </si>
+  <si>
+    <t>2ed9bac7-8ebe-479a-9bf8-6b837c7f0e90</t>
+  </si>
+  <si>
+    <t>c79c20d2-9c0c-4a88-823b-6f7842a46562</t>
+  </si>
+  <si>
+    <t>mij | museum ijsselstein</t>
+  </si>
+  <si>
+    <t>Museon</t>
+  </si>
+  <si>
+    <t>Museum Catharijneconvent</t>
+  </si>
+  <si>
+    <t>Portrait Gallery of the 17th Century</t>
+  </si>
+  <si>
+    <t>Museum De Lakenhal</t>
+  </si>
+  <si>
+    <t>TextielMuseum</t>
+  </si>
+  <si>
+    <t>Museum van Bommel van Dam</t>
+  </si>
+  <si>
+    <t>Museum Beelden aan Zee</t>
+  </si>
+  <si>
+    <t>military</t>
+  </si>
+  <si>
+    <t>2c843151-3bfa-4329-8f32-5e969d913214</t>
+  </si>
+  <si>
+    <t>b8038372-8f48-4fcc-84ae-8f2cc86b3a69</t>
+  </si>
+  <si>
+    <t>20dd4b53-05a1-4fd1-9ff7-4d936ac4afee</t>
+  </si>
+  <si>
+    <t>64c5b44f-cb1a-4746-83f7-431c4f7050f9</t>
+  </si>
+  <si>
+    <t>424e8423-e43b-48e8-ad19-821014020860</t>
+  </si>
+  <si>
+    <t>69295701-69e0-47c2-89c5-1586e4f3f64a</t>
+  </si>
+  <si>
+    <t>3caa2392-510f-4c85-a489-b83e8200ff90</t>
+  </si>
+  <si>
+    <t>Marinemuseum</t>
+  </si>
+  <si>
+    <t>Geniemuseum</t>
+  </si>
+  <si>
+    <t>Oorlogsmuseum Overloon</t>
+  </si>
+  <si>
+    <t>Flessenscheepjesmuseum</t>
+  </si>
+  <si>
+    <t>Comenius Museum</t>
+  </si>
+  <si>
+    <t>Nationaal Baggermuseum</t>
+  </si>
+  <si>
+    <t>Luchtvaartmuseum Aviodrome</t>
+  </si>
+  <si>
+    <t>trainstation</t>
+  </si>
+  <si>
+    <t>c5ad38ca-1303-43d2-adee-04bb0e3268f6</t>
+  </si>
+  <si>
+    <t>a8d715f7-82f5-4df4-9308-0d33c4c1eaa2</t>
   </si>
   <si>
     <t>7810d0eb-0034-457b-9cf7-ae7aa21e104f</t>
   </si>
   <si>
+    <t>f42e58c1-d6e6-4bdb-aa51-e0af569e31df</t>
+  </si>
+  <si>
+    <t>044424ba-e4e7-4de8-b88c-ccaf14cf4c59</t>
+  </si>
+  <si>
+    <t>Stedelijk Museum Alkmaar</t>
+  </si>
+  <si>
+    <t>Koninklijk Paleis Amsterdam</t>
+  </si>
+  <si>
+    <t>Rijksmuseum Amsterdam</t>
+  </si>
+  <si>
+    <t>Joods Historisch Museum</t>
+  </si>
+  <si>
+    <t>Honig Breethuis</t>
+  </si>
+  <si>
+    <t>43342fe3-e57f-4b74-883f-207d1cf0a24b</t>
+  </si>
+  <si>
+    <t>De Bastei</t>
+  </si>
+  <si>
+    <t>parking</t>
+  </si>
+  <si>
+    <t>02f0dab3-4ee5-4c38-a0b8-ae02ed4b06b3</t>
+  </si>
+  <si>
+    <t>3f224a07-d3c3-4467-ab27-2d0f4d6705dc</t>
+  </si>
+  <si>
     <t>971a3945-faba-4021-8d5b-5b6fcd124640</t>
   </si>
   <si>
-    <t>a42cba4d-03ab-449a-8fb5-a24fb363afa5</t>
-  </si>
-  <si>
-    <t>1de93dee-f6b5-4a1c-8d7f-e896df26a694</t>
-  </si>
-  <si>
-    <t>a2c1a9f7-97b2-493a-a04c-a760d4066ba9</t>
-  </si>
-  <si>
-    <t>9231914a-1dac-4afe-b28a-cc37ee7c5bfd</t>
-  </si>
-  <si>
-    <t>1e3aaa11-c04f-43bd-9707-58401ee41056</t>
-  </si>
-  <si>
-    <t>Museon</t>
-  </si>
-  <si>
-    <t>De Hollandsche Manege</t>
-  </si>
-  <si>
-    <t>Veenkoloniaal Museum</t>
-  </si>
-  <si>
-    <t>Rijksmuseum Amsterdam</t>
+    <t>dc084656-3e15-4519-9412-4753da0bc11b</t>
+  </si>
+  <si>
+    <t>c2d8b6c2-92ae-46c2-9890-8696aaec6e1d</t>
+  </si>
+  <si>
+    <t>ba678427-5609-42b1-91e2-fd5c845d42c6</t>
+  </si>
+  <si>
+    <t>d183dcdd-900b-4721-b8a0-c44912e8ce7f</t>
+  </si>
+  <si>
+    <t>Botanische Tuinen Utrecht</t>
+  </si>
+  <si>
+    <t>Openluchtmuseum en Themapark De Spitkeet</t>
   </si>
   <si>
     <t>Zuiderzeemuseum</t>
   </si>
   <si>
-    <t>Belasting &amp; Douane Museum</t>
-  </si>
-  <si>
-    <t>Literatuurmuseum</t>
-  </si>
-  <si>
-    <t>Museum van de Geest | Dolhuys</t>
-  </si>
-  <si>
-    <t>Streek &amp; Landbouwmuseum Goemanszorg</t>
-  </si>
-  <si>
-    <t>Hunebedcentrum</t>
+    <t>Museumpark Orientalis</t>
+  </si>
+  <si>
+    <t>Openluchtmuseum Ootmarsum</t>
+  </si>
+  <si>
+    <t>Historische Tuin Aalsmeer</t>
+  </si>
+  <si>
+    <t>Fruitteeltmuseum</t>
+  </si>
+  <si>
+    <t>e45fa2d7-0f3f-4a61-9611-2a5f14be0c39</t>
+  </si>
+  <si>
+    <t>37e493ef-e985-4774-a856-fb44640c0ee0</t>
+  </si>
+  <si>
+    <t>3bcb3ba4-1675-461b-880e-2676f8c7def9</t>
+  </si>
+  <si>
+    <t>8f9a43db-d28a-4857-b4e5-2f128210a7ee</t>
+  </si>
+  <si>
+    <t>4981f5e2-5430-48aa-a8e0-726868672a4d</t>
+  </si>
+  <si>
+    <t>Museum het Petershuis</t>
+  </si>
+  <si>
+    <t>Museum Waelstee</t>
+  </si>
+  <si>
+    <t>ABC Architectuurcentrum Haarlem</t>
+  </si>
+  <si>
+    <t>Museum 't Oude Slot</t>
+  </si>
+  <si>
+    <t>Museum Valkenburg</t>
   </si>
   <si>
     <t>library</t>
   </si>
   <si>
-    <t>e9ad0209-89ad-4e53-a353-b7328562f8e6</t>
-  </si>
-  <si>
-    <t>f42e58c1-d6e6-4bdb-aa51-e0af569e31df</t>
-  </si>
-  <si>
-    <t>424e8423-e43b-48e8-ad19-821014020860</t>
+    <t>71728b2c-4b17-4855-8663-98a7788acaf0</t>
+  </si>
+  <si>
+    <t>f76d5813-3efb-44c8-beff-5d2a569d7eb3</t>
   </si>
   <si>
     <t>8fae9e9b-5c62-477b-9ccc-d9d3ec1d695c</t>
   </si>
   <si>
-    <t>621c0554-f8d1-454c-9218-e60683a536ee</t>
-  </si>
-  <si>
-    <t>aa54b14e-fe16-4424-9be9-ca9d8ef84fa7</t>
-  </si>
-  <si>
-    <t>5a140fbe-2efc-42e1-ad57-c01ac3a7b409</t>
-  </si>
-  <si>
-    <t>Universiteitsmuseum Groningen</t>
-  </si>
-  <si>
-    <t>Joods Historisch Museum</t>
-  </si>
-  <si>
-    <t>Comenius Museum</t>
+    <t>38609b0d-35a3-43ce-9896-d7c42996b702</t>
+  </si>
+  <si>
+    <t>a28f5f86-7181-44e8-9dcc-12ca3f94b4a7</t>
+  </si>
+  <si>
+    <t>2aab8e4a-58db-4bf4-afe8-06a444b8e56c</t>
+  </si>
+  <si>
+    <t>Groninger Museum</t>
+  </si>
+  <si>
+    <t>Museum Gouda</t>
   </si>
   <si>
     <t>Nederlands Zilvermuseum</t>
   </si>
   <si>
-    <t>mij | museum ijsselstein</t>
-  </si>
-  <si>
-    <t>Van Gogh Museum</t>
-  </si>
-  <si>
-    <t>Observeum Burgum</t>
+    <t>Museum Slager</t>
+  </si>
+  <si>
+    <t>Heerenveen Museum</t>
+  </si>
+  <si>
+    <t>Keramiekmuseum Princessehof</t>
   </si>
   <si>
     <t>historic_museum</t>
   </si>
   <si>
-    <t>689733f3-0f0a-411d-b5b4-a33dd39639f0</t>
-  </si>
-  <si>
-    <t>682197a8-0359-4094-8281-ffa059de480f</t>
-  </si>
-  <si>
-    <t>17b0f25b-2ddc-4d69-bccc-5f1ce4ffe980</t>
-  </si>
-  <si>
-    <t>fb32cee8-c9ce-47fa-b7f0-1d0b814b759e</t>
-  </si>
-  <si>
-    <t>19c6eb6a-fbd4-4bf3-a55c-72dd68d0fbe8</t>
-  </si>
-  <si>
-    <t>b5f1962b-3709-4476-a8c7-6209ca198c7d</t>
-  </si>
-  <si>
-    <t>b8ff0361-b591-4bfb-9671-5bdb3d48c1af</t>
-  </si>
-  <si>
-    <t>53226f07-3c00-42a5-8bae-ff4c6cfa9747</t>
-  </si>
-  <si>
-    <t>209fe943-8c16-4342-888c-d752adc50e82</t>
-  </si>
-  <si>
-    <t>Museum Weesp</t>
-  </si>
-  <si>
-    <t>Museum Catharijneconvent</t>
-  </si>
-  <si>
-    <t>Museum Hoeksche Waard</t>
-  </si>
-  <si>
-    <t>Nationaal Gevangenismuseum</t>
-  </si>
-  <si>
-    <t>Landbouw-Juttersmuseum 'Swartwoude'</t>
-  </si>
-  <si>
-    <t>Museum Veenendaal</t>
-  </si>
-  <si>
-    <t>Marechausseemuseum</t>
-  </si>
-  <si>
-    <t>Museum Nienoord, Borg en Nationaal Rijtuigmuseum</t>
-  </si>
-  <si>
-    <t>Fries Verzetsmuseum</t>
-  </si>
-  <si>
-    <t>weelchair</t>
-  </si>
-  <si>
-    <t>c79c20d2-9c0c-4a88-823b-6f7842a46562</t>
-  </si>
-  <si>
-    <t>1335f2de-05b0-4351-8cae-1cb1263b3791</t>
-  </si>
-  <si>
-    <t>71728b2c-4b17-4855-8663-98a7788acaf0</t>
-  </si>
-  <si>
-    <t>f05af616-d419-463e-89da-c107b2f20129</t>
-  </si>
-  <si>
-    <t>b2c2237c-a0b5-4d94-99b9-c71b8ede2fc5</t>
-  </si>
-  <si>
-    <t>Museum Beelden aan Zee</t>
-  </si>
-  <si>
-    <t>Het Scheepvaartmuseum</t>
-  </si>
-  <si>
-    <t>Groninger Museum</t>
-  </si>
-  <si>
-    <t>Museum Het Valkhof</t>
-  </si>
-  <si>
-    <t>Stedelijk Museum Zutphen</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>4b596778-4379-48da-a946-0d04e39e3cea</t>
-  </si>
-  <si>
-    <t>832cd1d6-c933-4279-8ae6-1e3fa38853a2</t>
-  </si>
-  <si>
-    <t>d1e42c4d-d176-4833-98a8-a3fb4a725b91</t>
-  </si>
-  <si>
-    <t>c5ad38ca-1303-43d2-adee-04bb0e3268f6</t>
-  </si>
-  <si>
-    <t>095343bc-bce6-4c73-a7b2-01a75c9b2efa</t>
-  </si>
-  <si>
-    <t>a8d715f7-82f5-4df4-9308-0d33c4c1eaa2</t>
-  </si>
-  <si>
-    <t>Museum Het Pakhuis</t>
-  </si>
-  <si>
-    <t>Museum de Kantfabriek</t>
-  </si>
-  <si>
-    <t>Museumpark Archeon</t>
-  </si>
-  <si>
-    <t>Stedelijk Museum Alkmaar</t>
-  </si>
-  <si>
-    <t>NEMO Science Museum</t>
-  </si>
-  <si>
-    <t>Koninklijk Paleis Amsterdam</t>
-  </si>
-  <si>
-    <t>cluster1</t>
-  </si>
-  <si>
-    <t>d9c3694b-8999-46e7-9264-66e2ca190c86</t>
-  </si>
-  <si>
-    <t>1d9c7610-ab17-4f68-ae48-9cefefc32b20</t>
-  </si>
-  <si>
-    <t>6add9957-7a8c-469f-83da-ff169b0f2050</t>
-  </si>
-  <si>
-    <t>3caa2392-510f-4c85-a489-b83e8200ff90</t>
-  </si>
-  <si>
-    <t>f82c9249-ae42-4690-bcbc-9db3f55db2d0</t>
-  </si>
-  <si>
-    <t>15d80092-895b-45cb-aad9-b1b470cfc177</t>
-  </si>
-  <si>
-    <t>Veiligheidsmuseum PIT</t>
-  </si>
-  <si>
-    <t>Continium discovery center</t>
-  </si>
-  <si>
-    <t>Louwman Museum</t>
-  </si>
-  <si>
-    <t>Luchtvaartmuseum Aviodrome</t>
-  </si>
-  <si>
-    <t>Natuurmuseum Fryslân</t>
-  </si>
-  <si>
-    <t>Space Expo</t>
-  </si>
-  <si>
-    <t>audiotour</t>
-  </si>
-  <si>
-    <t>d579493e-5364-4327-b712-d231508db640</t>
-  </si>
-  <si>
-    <t>54f9204e-e6fd-4ea3-a352-84484292b8ba</t>
-  </si>
-  <si>
-    <t>04f3f792-3b2e-4c9a-af48-584f4dd61bfe</t>
-  </si>
-  <si>
-    <t>1f8bb764-3a9f-4159-b775-829e80c953a2</t>
-  </si>
-  <si>
-    <t>a7e42402-9eb9-4312-abf5-ae09e951e068</t>
-  </si>
-  <si>
-    <t>Portrait Gallery of the 17th Century</t>
-  </si>
-  <si>
-    <t>PreHistorisch Dorp</t>
-  </si>
-  <si>
-    <t>Kasteel Huis Bergh</t>
-  </si>
-  <si>
-    <t>Rijksmuseum Muiderslot</t>
-  </si>
-  <si>
-    <t>Airborne Museum at Hartenstein</t>
-  </si>
-  <si>
-    <t>architectonic</t>
-  </si>
-  <si>
-    <t>1cf7d97e-57d6-4550-be98-8d19ea5ac3a5</t>
-  </si>
-  <si>
-    <t>dffe8ae8-e39f-49d2-a41b-004775a406a8</t>
-  </si>
-  <si>
-    <t>f9453fa1-3fe4-4c3e-a980-174ddae906fc</t>
-  </si>
-  <si>
-    <t>abd0504d-1106-44ee-8c62-3cc937d5fd9a</t>
-  </si>
-  <si>
-    <t>eb12d0f0-4e38-4bcf-9848-0295d05335a1</t>
-  </si>
-  <si>
-    <t>742e5925-2496-45d7-a5a8-4f5925dbb2b6</t>
-  </si>
-  <si>
-    <t>f949947c-21cd-4074-bc78-c9039268ab07</t>
-  </si>
-  <si>
-    <t>af698204-4437-411f-a1a9-d5a0fe7d16bb</t>
-  </si>
-  <si>
-    <t>3f96c8bc-3397-4d76-a48a-ee33ca65a8bb</t>
-  </si>
-  <si>
-    <t>Pieter Vermeulen Museum</t>
-  </si>
-  <si>
-    <t>Portugese Synagoge Amsterdam</t>
-  </si>
-  <si>
-    <t>Embassy of the Free Mind</t>
-  </si>
-  <si>
-    <t>Stedelijk Museum Breda</t>
-  </si>
-  <si>
-    <t>Kasteelruïne - Fluweelengrot Valkenburg</t>
-  </si>
-  <si>
-    <t>Huis Verwolde</t>
-  </si>
-  <si>
-    <t>Museum Menkemaborg</t>
-  </si>
-  <si>
-    <t>Museum Veere</t>
-  </si>
-  <si>
-    <t>Sint Jan Gouda</t>
-  </si>
-  <si>
-    <t>restaurant</t>
-  </si>
-  <si>
-    <t>d280a91d-ebc1-4607-afb9-e38a67c862d0</t>
-  </si>
-  <si>
-    <t>f61643e5-0237-4536-90ef-d3e8f721de21</t>
-  </si>
-  <si>
-    <t>a2040f47-849b-4ca6-967e-adee1ee5a930</t>
-  </si>
-  <si>
-    <t>Wereldmuseum Rotterdam</t>
-  </si>
-  <si>
-    <t>Biesbosch MuseumEiland</t>
-  </si>
-  <si>
-    <t>TextielMuseum</t>
-  </si>
-  <si>
-    <t>gardens</t>
-  </si>
-  <si>
-    <t>02f0dab3-4ee5-4c38-a0b8-ae02ed4b06b3</t>
-  </si>
-  <si>
-    <t>1a918684-33d5-485a-80b7-90a8086803ef</t>
-  </si>
-  <si>
-    <t>b0654f59-55d5-4c74-8420-3d3938f861e2</t>
-  </si>
-  <si>
-    <t>d183dcdd-900b-4721-b8a0-c44912e8ce7f</t>
-  </si>
-  <si>
-    <t>f9d5d350-4bab-499a-8f53-2af1f6f25601</t>
-  </si>
-  <si>
-    <t>ba678427-5609-42b1-91e2-fd5c845d42c6</t>
-  </si>
-  <si>
-    <t>f13e960f-96aa-4a92-97d7-4047e7c837d9</t>
-  </si>
-  <si>
-    <t>Botanische Tuinen Utrecht</t>
-  </si>
-  <si>
-    <t>Buitenplaats Kasteel Wijlre</t>
-  </si>
-  <si>
-    <t>Botanische Tuin De Kruidhof</t>
-  </si>
-  <si>
-    <t>Fruitteeltmuseum</t>
-  </si>
-  <si>
-    <t>Trompenburg Tuinen &amp; Arboretum</t>
-  </si>
-  <si>
-    <t>Historische Tuin Aalsmeer</t>
-  </si>
-  <si>
-    <t>Nationaal Bomenmuseum Gimborn</t>
+    <t>60780e37-d503-4b56-b1d5-a46c2358eb41</t>
+  </si>
+  <si>
+    <t>2725e4ae-3118-48ba-85d9-9b6b646fb7ab</t>
+  </si>
+  <si>
+    <t>23eaf7fc-a6ca-40a3-87c5-257dca174595</t>
+  </si>
+  <si>
+    <t>c40020e4-d23b-4607-9145-7aa020866c04</t>
+  </si>
+  <si>
+    <t>93062e20-901e-46a2-b1f4-107cd82e7ed5</t>
+  </si>
+  <si>
+    <t>c4cc477e-1442-4ef9-96ea-539e46356b07</t>
+  </si>
+  <si>
+    <t>9dd3fd7c-9281-4e0b-a661-909e597b93ee</t>
+  </si>
+  <si>
+    <t>Streekmuseum Etten Leur</t>
+  </si>
+  <si>
+    <t>Heiligenbeeldenmuseum</t>
+  </si>
+  <si>
+    <t>Nationaal Onderduikmuseum</t>
+  </si>
+  <si>
+    <t>Huygens' Hofwijck</t>
+  </si>
+  <si>
+    <t>Nationaal Tinnen Figuren Museum</t>
+  </si>
+  <si>
+    <t>Louis Couperus Museum</t>
+  </si>
+  <si>
+    <t>Museum Rotterdam</t>
   </si>
 </sst>
 </file>
@@ -846,7 +822,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>186</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -863,7 +839,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -880,7 +856,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>157</v>
+        <v>448</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -897,7 +873,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>230</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -914,7 +890,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -931,7 +907,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>316</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -948,7 +924,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -965,7 +941,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>315</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -982,7 +958,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>272</v>
+        <v>414</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -999,7 +975,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>65</v>
+        <v>347</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1046,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1054,13 +1030,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>468</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1071,30 +1047,30 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>344</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1105,47 +1081,47 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>411</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>483</v>
+        <v>382</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1156,47 +1132,47 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>186</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>465</v>
+        <v>384</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1207,19 +1183,19 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>168</v>
+        <v>305</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1227,10 +1203,10 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1262,13 +1238,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>450</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1279,13 +1255,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1296,13 +1272,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>133</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1313,13 +1289,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1330,13 +1306,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>316</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1347,13 +1323,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1364,13 +1340,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>194</v>
+        <v>478</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1381,13 +1357,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1398,13 +1374,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>331</v>
+        <v>409</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1415,13 +1391,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1462,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1470,47 +1446,47 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>204</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>468</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1521,13 +1497,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1538,13 +1514,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>487</v>
+        <v>423</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1555,30 +1531,30 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1589,44 +1565,44 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>57</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>71</v>
+        <v>389</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
         <v>58</v>
@@ -1643,10 +1619,10 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1678,13 +1654,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>389</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1695,13 +1671,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>36</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1712,13 +1688,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>218</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1729,121 +1705,121 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>462</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>316</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>349</v>
+        <v>198</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>268</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1851,10 +1827,10 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1878,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1886,47 +1862,47 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>145</v>
+        <v>386</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>450</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>468</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1937,30 +1913,30 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>250</v>
+        <v>414</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>414</v>
+        <v>250</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1971,30 +1947,30 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>386</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2008,44 +1984,44 @@
         <v>230</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>133</v>
+        <v>468</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>328</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2059,10 +2035,10 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2094,13 +2070,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>430</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2111,13 +2087,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>186</v>
+        <v>414</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2128,13 +2104,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2145,13 +2121,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>58</v>
+        <v>478</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2162,13 +2138,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>272</v>
+        <v>430</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2179,13 +2155,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2196,13 +2172,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2213,13 +2189,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>478</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2230,13 +2206,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>39</v>
+        <v>316</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2247,13 +2223,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2294,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2302,13 +2278,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>328</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2319,13 +2295,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>386</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2336,13 +2312,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>423</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2353,13 +2329,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>168</v>
+        <v>414</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2370,13 +2346,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2387,13 +2363,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>69</v>
+        <v>290</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2404,13 +2380,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>326</v>
+        <v>434</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2421,47 +2397,47 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>230</v>
+        <v>380</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>468</v>
+        <v>362</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2475,10 +2451,10 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2502,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2510,13 +2486,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>328</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2527,13 +2503,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2544,13 +2520,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2561,13 +2537,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>479</v>
+        <v>445</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2578,13 +2554,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>337</v>
+        <v>248</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2595,13 +2571,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>452</v>
+        <v>347</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2612,13 +2588,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>221</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2629,13 +2605,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>480</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2646,13 +2622,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>343</v>
+        <v>266</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2663,13 +2639,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2710,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2718,13 +2694,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2735,13 +2711,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>186</v>
+        <v>475</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2752,13 +2728,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>468</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2769,13 +2745,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>417</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2786,13 +2762,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2803,13 +2779,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -2820,13 +2796,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2837,13 +2813,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2854,30 +2830,30 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>450</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>313</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2891,10 +2867,10 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/validation_excel.xlsx
+++ b/validation_excel.xlsx
@@ -7,16 +7,29 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="zmqpilswfa" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="pmshxjcuzg" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="cvdyemfklt" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="frnvuokdbl" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="pgvluaczxy" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="mvgtkhqija" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="zpwkfdjxrb" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="vucdlyiphf" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="nbxrjzdmvy" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="wdnfmxurcl" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="puetfwkjng" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="krhpduxojn" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="awdqcsbyor" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="vixukgpzlo" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ypdqrhmbls" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="vdhzwegspa" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ktfgyjsqpm" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="pbxefwjhmc" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="jpkdtsmleb" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="dwlprxfhas" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="dgahcxwiyz" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="bmokcvtjui" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="wskmjepyql" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="gahvswyxec" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="euplftxnkv" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="dhsaqyobrp" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="qacltofrxh" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="tvyunkrhcx" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="kbyftzrvjm" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="cdebxrhivy" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="uldmhrokae" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="seyguqrdan" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="ohaswbvlnc" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +468,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cluster2</t>
+          <t>architectonic</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -466,37 +479,37 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17aed04d-9186-4452-b263-0de3dfe7f6f2</t>
+          <t>7810d0eb-0034-457b-9cf7-ae7aa21e104f</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Slot Zuylen</t>
+          <t>Rijksmuseum Amsterdam</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>59402691-8308-4222-bc19-7cc9f20e1d88</t>
+          <t>5adfb94f-9e56-40b1-a93e-766264de3f02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Kasteel Heeswijk</t>
+          <t>Zwanenbroedershuis</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -508,16 +521,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>252</v>
+        <v>460</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>80a37d9f-37d1-466f-96c2-b65044666fbe</t>
+          <t>eb12d0f0-4e38-4bcf-9848-0295d05335a1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kasteel Duivenvoorde</t>
+          <t>Kasteelruïne - Fluweelengrot Valkenburg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -529,16 +542,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>119</v>
+        <v>447</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3b3c0cbf-7176-4d16-bc60-89eeeb679a76</t>
+          <t>df6d2369-9846-49ae-9a5d-ca40a6e310b8</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Kasteel Radboud</t>
+          <t>Huis van het boek</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -550,16 +563,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dc333343-ecdf-4502-a6b7-35b8ba5c1684</t>
+          <t>dffe8ae8-e39f-49d2-a41b-004775a406a8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kasteel Doorwerth</t>
+          <t>Portugese Synagoge Amsterdam</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -571,16 +584,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>175</v>
+        <v>489</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>55536edf-d8c3-4415-aef5-5ffeb76a2bd5</t>
+          <t>f949947c-21cd-4074-bc78-c9039268ab07</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Kasteel Amerongen</t>
+          <t>Museum Menkemaborg</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -592,16 +605,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>313</v>
+        <v>488</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9f88e8ae-c589-427e-becb-1e071b215cd1</t>
+          <t>f9453fa1-3fe4-4c3e-a980-174ddae906fc</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Kasteel Keukenhof</t>
+          <t>Embassy of the Free Mind</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -613,16 +626,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>418</v>
+        <v>351</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>d0bf039f-cc00-4511-bb91-94ac191a3c67</t>
+          <t>af698204-4437-411f-a1a9-d5a0fe7d16bb</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Kasteel Hoensbroek</t>
+          <t>Museum Veere</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -634,16 +647,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>a5e644b6-829e-477a-956f-91eb4fa4e1a4</t>
+          <t>a8d715f7-82f5-4df4-9308-0d33c4c1eaa2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kasteel Cannenburch</t>
+          <t>Koninklijk Paleis Amsterdam</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -655,16 +668,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1f8bb764-3a9f-4159-b775-829e80c953a2</t>
+          <t>1cf7d97e-57d6-4550-be98-8d19ea5ac3a5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rijksmuseum Muiderslot</t>
+          <t>Pieter Vermeulen Museum</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -683,10 +696,10 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +734,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>architectonic</t>
+          <t>audiotour</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -732,16 +745,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>476</v>
+        <v>69</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>f42e58c1-d6e6-4bdb-aa51-e0af569e31df</t>
+          <t>1f85673a-ba18-4aaf-821a-baf56c7efea7</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Joods Historisch Museum</t>
+          <t>Hermitage Amsterdam</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -753,142 +766,142 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>460</v>
+        <v>351</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eb12d0f0-4e38-4bcf-9848-0295d05335a1</t>
+          <t>af698204-4437-411f-a1a9-d5a0fe7d16bb</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Kasteelruïne - Fluweelengrot Valkenburg</t>
+          <t>Museum Veere</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>226</v>
+        <v>343</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>742e5925-2496-45d7-a5a8-4f5925dbb2b6</t>
+          <t>abd0504d-1106-44ee-8c62-3cc937d5fd9a</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Huis Verwolde</t>
+          <t>Stedelijk Museum Breda</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>351</v>
+        <v>136</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>af698204-4437-411f-a1a9-d5a0fe7d16bb</t>
+          <t>424e8423-e43b-48e8-ad19-821014020860</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Museum Veere</t>
+          <t>Comenius Museum</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>abd0504d-1106-44ee-8c62-3cc937d5fd9a</t>
+          <t>9afcd6a2-85e3-4c7c-9f82-887076f83a68</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Stedelijk Museum Breda</t>
+          <t>Slot Loevestein</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>131</v>
+        <v>322</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3f96c8bc-3397-4d76-a48a-ee33ca65a8bb</t>
+          <t>a42cba4d-03ab-449a-8fb5-a24fb363afa5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sint Jan Gouda</t>
+          <t>Belasting &amp; Douane Museum</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>58</v>
+        <v>460</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1cf7d97e-57d6-4550-be98-8d19ea5ac3a5</t>
+          <t>eb12d0f0-4e38-4bcf-9848-0295d05335a1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Pieter Vermeulen Museum</t>
+          <t>Kasteelruïne - Fluweelengrot Valkenburg</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>df6d2369-9846-49ae-9a5d-ca40a6e310b8</t>
+          <t>d579493e-5364-4327-b712-d231508db640</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Huis van het boek</t>
+          <t>Portrait Gallery of the 17th Century</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -900,16 +913,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>488</v>
+        <v>394</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>f9453fa1-3fe4-4c3e-a980-174ddae906fc</t>
+          <t>c5ad38ca-1303-43d2-adee-04bb0e3268f6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Embassy of the Free Mind</t>
+          <t>Stedelijk Museum Alkmaar</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -921,16 +934,1878 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>334</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>a8d715f7-82f5-4df4-9308-0d33c4c1eaa2</t>
+          <t>04f3f792-3b2e-4c9a-af48-584f4dd61bfe</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Koninklijk Paleis Amsterdam</t>
+          <t>Kasteel Huis Bergh</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>feature total</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>translationSetId</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>museumname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>nature</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>museum total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4b596778-4379-48da-a946-0d04e39e3cea</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Museum Het Pakhuis</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>02f0dab3-4ee5-4c38-a0b8-ae02ed4b06b3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Botanische Tuinen Utrecht</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4a0e3a07-7a4c-4e95-825b-a3b4ebb11c06</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Nederlands Pluimveemuseum</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1e3a00ee-337e-4cc0-9688-782f4021eb94</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Natuurhistorisch Museum Maastricht</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>f82c9249-ae42-4690-bcbc-9db3f55db2d0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Natuurmuseum Fryslân</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>944a4c15-58c0-44dc-8f8a-c65b44179c16</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Missiemuseum Steyl</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>be9f0da1-1fde-448d-845a-cd231dac8c3e</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Leudal Museum</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>b2398575-3c86-42a2-b07c-886384eb9add</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Museum Wierdenland Ezinge</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>e9ad0209-89ad-4e53-a353-b7328562f8e6</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Universiteitsmuseum Groningen</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1e3aaa11-c04f-43bd-9707-58401ee41056</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Hunebedcentrum</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>feature total</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>translationSetId</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>museumname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>local history war</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>museum total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fe92325a-3b6b-4b8b-9a29-49575071df82</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Vrijmetselarij Museum</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>51e0605c-118c-43ba-b395-a579ef5c2716</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Galerij Prins Willem V</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dffe8ae8-e39f-49d2-a41b-004775a406a8</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portugese Synagoge Amsterdam</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>00aa87d7-6034-4283-9a4c-3b9589c30fb4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Museum Prinsenhof Delft</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2adac304-3df6-4588-a60b-c763f29595f9</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Historisch Museum Den Briel</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>86ce2124-88f3-4fce-b174-20b61d0bdaaa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Stadskasteel Zaltbommel</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6c17c8de-2dd0-4670-b55d-402b84e26787</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Historisch Museum De Bevelanden</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>97dca6c1-6b1a-4ffe-a048-83ecce6707a5</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Beeld en Geluid Den Haag</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>f42e58c1-d6e6-4bdb-aa51-e0af569e31df</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Joods Historisch Museum</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9d3a2998-159f-42de-b069-48efe943607d</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Gorcums Museum</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>feature total</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>translationSetId</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>museumname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>military</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>museum total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>9f10ad8a-4d3c-4d7e-ab05-5c1bf5adc3f0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mariniersmuseum</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>f64adebc-d16c-4e0d-8c2a-ab0e2f0f28ba</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Rijksmuseum Boerhaave</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3caa2392-510f-4c85-a489-b83e8200ff90</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Luchtvaartmuseum Aviodrome</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>69295701-69e0-47c2-89c5-1586e4f3f64a</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Nationaal Baggermuseum</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>424e8423-e43b-48e8-ad19-821014020860</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Comenius Museum</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>64c5b44f-cb1a-4746-83f7-431c4f7050f9</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Flessenscheepjesmuseum</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0d9b11c5-4842-4d97-b105-908bca7c8fa5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Museum Speelklok</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3f3b1b62-9a79-46dd-97dd-3a3e6edf74d1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Zeeuws Maritiem MuZEEum</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>d9c3694b-8999-46e7-9264-66e2ca190c86</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Veiligheidsmuseum PIT</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>a42cba4d-03ab-449a-8fb5-a24fb363afa5</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Belasting &amp; Douane Museum</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>feature total</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>translationSetId</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>museumname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>castles cluster</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>museum total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8061314a-3e6b-48fe-9f8e-73d62660147d</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Foam Fotografiemuseum Amsterdam</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>60dcdaf1-a16f-4a63-877b-1734d0e74d8d</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Kunstmuseum Den Haag</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1259b27a-48fb-48d4-adbb-31329be57921</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Stadsmuseum Harderwijk</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2aab8e4a-58db-4bf4-afe8-06a444b8e56c</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Keramiekmuseum Princessehof</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>c4ec2b8c-2aef-4e26-893a-ead4f7703e53</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Museum de Buitenplaats</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>d7f027c1-49fa-4fa8-a661-43598ed47263</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Kunsthal  Rotterdam</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4238d9e8-9800-400a-be2f-e9cf52787314</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Formerly known as Witte de With Center for Contemporary Art</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8fad50cc-1285-4f27-8a1d-9d2395dff367</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Vleeshal</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2fc39c27-ca42-462c-b8a5-6b8fdb927961</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Van Abbemuseum</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1a918684-33d5-485a-80b7-90a8086803ef</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Buitenplaats Kasteel Wijlre</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>feature total</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>translationSetId</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>museumname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exhibition</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>museum total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>424e8423-e43b-48e8-ad19-821014020860</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Comenius Museum</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>01ab8bee-401f-4c85-a742-c2198fbcef28</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Stedelijk Museum Amsterdam</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>e9ad0209-89ad-4e53-a353-b7328562f8e6</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Universiteitsmuseum Groningen</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0d9b11c5-4842-4d97-b105-908bca7c8fa5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Museum Speelklok</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>c5ad38ca-1303-43d2-adee-04bb0e3268f6</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Stedelijk Museum Alkmaar</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>d9c3694b-8999-46e7-9264-66e2ca190c86</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Veiligheidsmuseum PIT</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>f42e58c1-d6e6-4bdb-aa51-e0af569e31df</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Joods Historisch Museum</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3f3b1b62-9a79-46dd-97dd-3a3e6edf74d1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Zeeuws Maritiem MuZEEum</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>a42cba4d-03ab-449a-8fb5-a24fb363afa5</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Belasting &amp; Douane Museum</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>7810d0eb-0034-457b-9cf7-ae7aa21e104f</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Rijksmuseum Amsterdam</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>feature total</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>translationSetId</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>museumname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exhibition</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>museum total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>7810d0eb-0034-457b-9cf7-ae7aa21e104f</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Rijksmuseum Amsterdam</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>f05af616-d419-463e-89da-c107b2f20129</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Museum Het Valkhof</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>d7f027c1-49fa-4fa8-a661-43598ed47263</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Kunsthal  Rotterdam</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>673dafbb-e461-4ffb-ab3c-f857358c77a7</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Cube Design Museum</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>682197a8-0359-4094-8281-ffa059de480f</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Museum Catharijneconvent</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>71728b2c-4b17-4855-8663-98a7788acaf0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Groninger Museum</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>a2040f47-849b-4ca6-967e-adee1ee5a930</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TextielMuseum</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ddcb0195-4e2a-4be5-9e42-97c34308367c</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Cobra Museum voor Moderne Kunst</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1cd860b3-d35f-479d-9768-349702c3bc73</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Kröller-Müller Museum</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>c79c20d2-9c0c-4a88-823b-6f7842a46562</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Museum Beelden aan Zee</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>feature total</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>translationSetId</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>museumname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>trainstation</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>museum total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>95a74653-495e-4420-82e0-a1a6195f974d</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Museum De Lakenhal</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>a2040f47-849b-4ca6-967e-adee1ee5a930</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TextielMuseum</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>682197a8-0359-4094-8281-ffa059de480f</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Museum Catharijneconvent</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9dd3fd7c-9281-4e0b-a661-909e597b93ee</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Museum Rotterdam</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>a42cba4d-03ab-449a-8fb5-a24fb363afa5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Belasting &amp; Douane Museum</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6add9957-7a8c-469f-83da-ff169b0f2050</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Louwman Museum</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3f3b1b62-9a79-46dd-97dd-3a3e6edf74d1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Zeeuws Maritiem MuZEEum</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1f85673a-ba18-4aaf-821a-baf56c7efea7</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Hermitage Amsterdam</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5ebaa739-b1a4-443b-9cde-6c0b18e81607</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Museon</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0d9b11c5-4842-4d97-b105-908bca7c8fa5</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Museum Speelklok</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -953,6 +2828,538 @@
       </c>
       <c r="E12" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>translationSetId</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>museumname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>culture</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>museum total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>a8d715f7-82f5-4df4-9308-0d33c4c1eaa2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Koninklijk Paleis Amsterdam</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>39602e5d-e0c7-4304-aa89-ba9d234d12fa</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Het Cuypershuis</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dffe8ae8-e39f-49d2-a41b-004775a406a8</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portugese Synagoge Amsterdam</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>39b0a7b4-6bf6-4c5d-a29a-0e4266055be1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Museum De Waag</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>7810d0eb-0034-457b-9cf7-ae7aa21e104f</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Rijksmuseum Amsterdam</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>e9ad0209-89ad-4e53-a353-b7328562f8e6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Universiteitsmuseum Groningen</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>044424ba-e4e7-4de8-b88c-ccaf14cf4c59</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Honig Breethuis</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>424e8423-e43b-48e8-ad19-821014020860</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Comenius Museum</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>832cd1d6-c933-4279-8ae6-1e3fa38853a2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Museum de Kantfabriek</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>f42e58c1-d6e6-4bdb-aa51-e0af569e31df</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Joods Historisch Museum</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>feature total</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>translationSetId</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>museumname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>nature tech</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>museum total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>9967b239-a72b-4ad5-9215-c6383b7229d7</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Miramar Zeemuseum</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>eb6494bd-1744-4f74-889e-a18a27d8aae2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Boerderijmuseum ''De Bovenstreek''</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>b2398575-3c86-42a2-b07c-886384eb9add</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Museum Wierdenland Ezinge</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>057ec8d4-db1e-4b3a-a28c-3e5af7eb18b3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Openluchtmuseum de Locht</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>b5023390-ced1-4210-a14c-23c349b2ee15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Afrika Museum</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>e89e2757-e3e7-4d22-bba5-58f4164a0105</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Museum Staphorst</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1e3aaa11-c04f-43bd-9707-58401ee41056</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Hunebedcentrum</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>832cd1d6-c933-4279-8ae6-1e3fa38853a2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Museum de Kantfabriek</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4b596778-4379-48da-a946-0d04e39e3cea</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Museum Het Pakhuis</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>e9ad0209-89ad-4e53-a353-b7328562f8e6</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Universiteitsmuseum Groningen</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>feature total</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -987,7 +3394,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cluster4</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -998,16 +3405,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>448</v>
+        <v>130</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dffe8ae8-e39f-49d2-a41b-004775a406a8</t>
+          <t>3f3b1b62-9a79-46dd-97dd-3a3e6edf74d1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Portugese Synagoge Amsterdam</t>
+          <t>Zeeuws Maritiem MuZEEum</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -1019,16 +3426,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>353</v>
+        <v>121</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>b1132b3d-b239-4a24-a76b-b524ea708479</t>
+          <t>3caa2392-510f-4c85-a489-b83e8200ff90</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Historisch Museum Ede</t>
+          <t>Luchtvaartmuseum Aviodrome</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1040,16 +3447,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>fe92325a-3b6b-4b8b-9a29-49575071df82</t>
+          <t>f03acb0d-bfe6-45f8-847c-d3fa96aabe1f</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vrijmetselarij Museum</t>
+          <t>Museumstoomtram Hoorn-Medemblik</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -1061,37 +3468,835 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1</v>
+        <v>282</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>00aa87d7-6034-4283-9a4c-3b9589c30fb4</t>
+          <t>92f68db4-1a4e-4847-990b-9710c4696e9a</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Museum Prinsenhof Delft</t>
+          <t>Beeld en Geluid</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>241</v>
+        <v>438</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7b137589-30ad-453e-8313-7feeba7c3d51</t>
+          <t>d9c3694b-8999-46e7-9264-66e2ca190c86</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fotomuseum Den Haag</t>
+          <t>Veiligheidsmuseum PIT</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>e4b87fd4-b473-4137-abdc-c6854b3dd7a4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Nederlands Artillerie Museum</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0d9b11c5-4842-4d97-b105-908bca7c8fa5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Museum Speelklok</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ddc06b8b-9dd1-4768-be15-75477b0f104a</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Spoorwegmuseum</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>044424ba-e4e7-4de8-b88c-ccaf14cf4c59</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Honig Breethuis</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>a42cba4d-03ab-449a-8fb5-a24fb363afa5</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Belasting &amp; Douane Museum</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>feature total</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>translationSetId</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>museumname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>historical</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>museum total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>566defb3-a8cf-4ce7-bdb7-9c3e08431673</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Diamant Museum Amsterdam</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>bbcc349c-6f7e-4416-a6f9-1954997e54e6</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Stadsmuseum Groenlo</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>49ad034f-9424-4d89-aab5-8df3c2112ff4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Markiezenhof</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>eba73114-b030-49d1-9108-e60ea8670b3a</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Museum Het Schip</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3f1b3299-65f6-47c7-a507-56346cab0a5e</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Museum Stedhûs Sleat</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>d545be8a-48d2-4af9-862d-d26a821787e0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Paleis Het Loo</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>aa8279d3-78cf-4af8-8f83-24dd44caabd6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Amsterdam Museum</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>d579493e-5364-4327-b712-d231508db640</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portrait Gallery of the 17th Century</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>92652b8f-7600-4bee-8640-1c40b21a32cf</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Museum Van Loon</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1f85673a-ba18-4aaf-821a-baf56c7efea7</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Hermitage Amsterdam</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>feature total</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>translationSetId</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>museumname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exhibitions artists</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>museum total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>71728b2c-4b17-4855-8663-98a7788acaf0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Groninger Museum</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>c79c20d2-9c0c-4a88-823b-6f7842a46562</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Museum Beelden aan Zee</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>e0579fce-48ee-482e-8ed8-1281dae2c2b3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Museum Belvédère</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ef3c203e-a858-4f66-b2c8-59793913a386</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Jopie Huisman Museum</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>f70e0b91-81dd-4f8b-b5e4-e98ca0970b40</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Purmerends Museum</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>689733f3-0f0a-411d-b5b4-a33dd39639f0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Museum Weesp</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ce103d55-e291-48e2-ab48-7e464261985f</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Museum Maassluis</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>cfcd6f00-5b4b-4738-951b-5feb1945e644</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Het Noordbrabants Museum</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>f05af616-d419-463e-89da-c107b2f20129</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Museum Het Valkhof</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4ed3950e-9848-4acc-b32c-17b853e757be</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Museum Het Rembrandthuis</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>feature total</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>translationSetId</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>museumname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>local history war</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>museum total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fe92325a-3b6b-4b8b-9a29-49575071df82</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Vrijmetselarij Museum</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>783538c2-21d3-4a79-9830-01b9ae3812b9</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Design Museum Den Bosch</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dffe8ae8-e39f-49d2-a41b-004775a406a8</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portugese Synagoge Amsterdam</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>6c17c8de-2dd0-4670-b55d-402b84e26787</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Historisch Museum De Bevelanden</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>86ce2124-88f3-4fce-b174-20b61d0bdaaa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Stadskasteel Zaltbommel</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -1124,16 +4329,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>216</v>
+        <v>88</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6c17c8de-2dd0-4670-b55d-402b84e26787</t>
+          <t>2adac304-3df6-4588-a60b-c763f29595f9</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Historisch Museum De Bevelanden</t>
+          <t>Historisch Museum Den Briel</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1197,6 +4402,272 @@
       <c r="C11" t="inlineStr">
         <is>
           <t>Beeld en Geluid Den Haag</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>feature total</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>translationSetId</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>museumname</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>castles cluster</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>museum total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fa3297b4-3e97-42e1-86f7-7de33c2bc426</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Kunsthal KAdE</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>898f1dfc-f868-44a0-8389-eb6b79d2e0c5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>West Den Haag</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>06e54795-1e78-4c11-b824-7650f03eb1d8</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Kunstfort bij Vijfhuizen</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>17e7443b-50f2-4ecb-96cb-eda6262c5f8e</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>De Mesdag Collectie</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4238d9e8-9800-400a-be2f-e9cf52787314</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Formerly known as Witte de With Center for Contemporary Art</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>c4ec2b8c-2aef-4e26-893a-ead4f7703e53</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Museum de Buitenplaats</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>d7f027c1-49fa-4fa8-a661-43598ed47263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Kunsthal  Rotterdam</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2fc39c27-ca42-462c-b8a5-6b8fdb927961</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Van Abbemuseum</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>60dcdaf1-a16f-4a63-877b-1734d0e74d8d</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Kunstmuseum Den Haag</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2aab8e4a-58db-4bf4-afe8-06a444b8e56c</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Keramiekmuseum Princessehof</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1253,7 +4724,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>castles cluster</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -1264,16 +4735,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>130</v>
+        <v>249</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3f3b1b62-9a79-46dd-97dd-3a3e6edf74d1</t>
+          <t>7e8f969b-8f8b-4950-8028-f80b4a19c0db</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Zeeuws Maritiem MuZEEum</t>
+          <t>Museum Krona</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -1285,16 +4756,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>173</v>
+        <v>408</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>54f9204e-e6fd-4ea3-a352-84484292b8ba</t>
+          <t>cbebd2e6-4fd8-4bd8-a455-5310d4895828</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PreHistorisch Dorp</t>
+          <t>De Appel</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1306,16 +4777,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>121</v>
+        <v>385</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3caa2392-510f-4c85-a489-b83e8200ff90</t>
+          <t>c19ee988-451e-4da4-b83d-ae4c1bfbf2f0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Luchtvaartmuseum Aviodrome</t>
+          <t>Fotomuseum aan het Vrijthof</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -1327,16 +4798,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>d280a91d-ebc1-4607-afb9-e38a67c862d0</t>
+          <t>d277832b-8ab5-466d-ad2d-58a8f409f7cb</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Wereldmuseum Rotterdam</t>
+          <t>Museum de Fundatie</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1348,37 +4819,37 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dffe8ae8-e39f-49d2-a41b-004775a406a8</t>
+          <t>d7f027c1-49fa-4fa8-a661-43598ed47263</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Portugese Synagoge Amsterdam</t>
+          <t>Kunsthal  Rotterdam</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>367</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>029464f3-265b-4b69-a71d-cdd346b53c34</t>
+          <t>b95305d9-cc57-498c-8819-c1983713d181</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tropenmuseum Junior</t>
+          <t>Keramiekcentrum Tiendschuur Tegelen</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -1390,16 +4861,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5ea552c8-0db1-4e75-b6b0-d5b5933a5f2f</t>
+          <t>053014de-f18f-45e3-8dc6-c3f907646311</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Limburgs Museum</t>
+          <t>Museum De Domijnen, afdeling Hedendaagse Kunst</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1411,16 +4882,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>438</v>
+        <v>178</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>d9c3694b-8999-46e7-9264-66e2ca190c86</t>
+          <t>56518036-a7ca-43fe-b010-2ddfcec6aca3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Veiligheidsmuseum PIT</t>
+          <t>Mauritshuis</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1432,16 +4903,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5ebaa739-b1a4-443b-9cde-6c0b18e81607</t>
+          <t>10f92ca9-be97-40d2-b2ad-cb99d5154981</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Museon</t>
+          <t>Marres, Huis voor Hedendaagse Kunst</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1453,16 +4924,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>476</v>
+        <v>18</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>f42e58c1-d6e6-4bdb-aa51-e0af569e31df</t>
+          <t>078fe561-4a1d-4712-b204-11913bdd57b4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Joods Historisch Museum</t>
+          <t>Kunstvereniging Diepenheim</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1481,10 +4952,10 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1519,7 +4990,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cluster5</t>
+          <t>visual historical art</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -1530,16 +5001,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>454</v>
+        <v>200</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>e4b87fd4-b473-4137-abdc-c6854b3dd7a4</t>
+          <t>62f190ca-41de-480a-ba5c-6ca051442879</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nederlands Artillerie Museum</t>
+          <t>Muzee Scheveningen</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -1551,16 +5022,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>25</v>
+        <v>370</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0c2e2821-f3fd-4403-8b5a-37cb256b76a2</t>
+          <t>ba678427-5609-42b1-91e2-fd5c845d42c6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Kamp Westerbork</t>
+          <t>Historische Tuin Aalsmeer</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1572,142 +5043,142 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>305</v>
+        <v>238</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9afcd6a2-85e3-4c7c-9f82-887076f83a68</t>
+          <t>7a27d9cd-4c8e-41d0-88c4-e0dafb39f84b</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Slot Loevestein</t>
+          <t>Museum De Voorde</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>469</v>
+        <v>39</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>f03acb0d-bfe6-45f8-847c-d3fa96aabe1f</t>
+          <t>15d80092-895b-45cb-aad9-b1b470cfc177</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Museumstoomtram Hoorn-Medemblik</t>
+          <t>Space Expo</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9457c575-1900-4fc7-aca3-c7e1a1f26826</t>
+          <t>72ac8fe8-829b-4633-8e72-be04100017ed</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CODA</t>
+          <t>Koninklijk Eise Eisinga Planetarium</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>05a94d26-c8df-4105-8df5-67f1acd7e8c5</t>
+          <t>1d9c7610-ab17-4f68-ae48-9cefefc32b20</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Museum Schokland</t>
+          <t>Continium discovery center</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2dc0d96e-fbe8-41de-b1db-36094539f0ce</t>
+          <t>0aa09155-261b-4190-a561-e593ca877e24</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Libertum</t>
+          <t>Museum voor anatomie en pathologie</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>61</v>
+        <v>205</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1de93dee-f6b5-4a1c-8d7f-e896df26a694</t>
+          <t>673dafbb-e461-4ffb-ab3c-f857358c77a7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Literatuurmuseum</t>
+          <t>Cube Design Museum</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>322</v>
+        <v>400</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>a42cba4d-03ab-449a-8fb5-a24fb363afa5</t>
+          <t>c92918d5-cb45-432d-9874-7b54289beb09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Belasting &amp; Douane Museum</t>
+          <t>Nederlands Stoommachinemuseum</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1719,16 +5190,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>409</v>
+        <v>83</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cc12b367-a374-4c8a-bd04-8b24e412af3c</t>
+          <t>27b9e34f-c9da-47d5-a22e-d5140b9b0d18</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nederlands Openluchtmuseum</t>
+          <t>Museum Sterrenwacht Sonnenborgh</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1747,10 +5218,10 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1785,7 +5256,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>educative</t>
+          <t>historical</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -1796,142 +5267,142 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>02f0dab3-4ee5-4c38-a0b8-ae02ed4b06b3</t>
+          <t>7a6bb20e-440e-428d-a735-e417b43aa8a9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Botanische Tuinen Utrecht</t>
+          <t>Museum Willet-Holthuysen</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>173</v>
+        <v>279</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>54f9204e-e6fd-4ea3-a352-84484292b8ba</t>
+          <t>92652b8f-7600-4bee-8640-1c40b21a32cf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PreHistorisch Dorp</t>
+          <t>Museum Van Loon</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>201</v>
+        <v>390</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>630f0ad9-d790-4a77-a847-e7acb31be6d8</t>
+          <t>c40020e4-d23b-4607-9145-7aa020866c04</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>De Hollandsche Manege</t>
+          <t>Huygens' Hofwijck</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>409</v>
+        <v>276</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cc12b367-a374-4c8a-bd04-8b24e412af3c</t>
+          <t>90ebf3e8-d8ee-4b3b-9e62-3a17130bf3bf</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nederlands Openluchtmuseum</t>
+          <t>Museum Ons' Lieve Heer op Solder</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1cd860b3-d35f-479d-9768-349702c3bc73</t>
+          <t>179e0120-23f9-434b-804b-172effcfc85d</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kröller-Müller Museum</t>
+          <t>De Nieuwe Kerk</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>469</v>
+        <v>146</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>f03acb0d-bfe6-45f8-847c-d3fa96aabe1f</t>
+          <t>49ad034f-9424-4d89-aab5-8df3c2112ff4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Museumstoomtram Hoorn-Medemblik</t>
+          <t>Markiezenhof</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>484</v>
+        <v>338</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>f7d86ac9-4f08-4628-954b-0afec628135d</t>
+          <t>aa8279d3-78cf-4af8-8f83-24dd44caabd6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Huis van Hilde</t>
+          <t>Amsterdam Museum</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1943,16 +5414,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>375</v>
+        <v>462</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bdd23118-7948-42bd-8421-36d9ec2e423b</t>
+          <t>eba73114-b030-49d1-9108-e60ea8670b3a</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nationaal Archief</t>
+          <t>Museum Het Schip</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1964,16 +5435,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6c17c8de-2dd0-4670-b55d-402b84e26787</t>
+          <t>64669da3-83b4-421d-a306-4f0c6669d7db</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Historisch Museum De Bevelanden</t>
+          <t>Grachtenmuseum Amsterdam</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1985,16 +5456,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>63</v>
+        <v>431</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1e1dc984-631c-4c66-9ca3-b5b982fdff51</t>
+          <t>d579493e-5364-4327-b712-d231508db640</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Stoomtrein Katwijk Leiden</t>
+          <t>Portrait Gallery of the 17th Century</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -2013,10 +5484,10 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2051,7 +5522,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>library</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -2062,16 +5533,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6d4868c9-74a6-41f4-8c23-cabe36c82361</t>
+          <t>38a216ca-1fee-45de-9b0a-ae857342d0c0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nationaal Onderwijsmuseum</t>
+          <t>Botanische Tuin TU Delft</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -2083,37 +5554,37 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4cb403ef-21c9-4731-86a2-f9f32bd44487</t>
+          <t>095343bc-bce6-4c73-a7b2-01a75c9b2efa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Brabants Museum Oud Oosterhout</t>
+          <t>NEMO Science Museum</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>138</v>
+        <v>476</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>43342fe3-e57f-4b74-883f-207d1cf0a24b</t>
+          <t>f42e58c1-d6e6-4bdb-aa51-e0af569e31df</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>De Bastei</t>
+          <t>Joods Historisch Museum</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -2125,16 +5596,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>417</v>
+        <v>319</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>d0077c9a-8102-4749-ba85-fe2e8b3ef53d</t>
+          <t>a2040f47-849b-4ca6-967e-adee1ee5a930</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GeoFort</t>
+          <t>TextielMuseum</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -2146,16 +5617,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>298</v>
+        <v>438</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>97dca6c1-6b1a-4ffe-a048-83ecce6707a5</t>
+          <t>d9c3694b-8999-46e7-9264-66e2ca190c86</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Beeld en Geluid Den Haag</t>
+          <t>Veiligheidsmuseum PIT</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -2167,16 +5638,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>f82c9249-ae42-4690-bcbc-9db3f55db2d0</t>
+          <t>e9ad0209-89ad-4e53-a353-b7328562f8e6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Natuurmuseum Fryslân</t>
+          <t>Universiteitsmuseum Groningen</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -2188,16 +5659,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4b596778-4379-48da-a946-0d04e39e3cea</t>
+          <t>0aa09155-261b-4190-a561-e593ca877e24</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Museum Het Pakhuis</t>
+          <t>Museum voor anatomie en pathologie</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -2209,37 +5680,37 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>095343bc-bce6-4c73-a7b2-01a75c9b2efa</t>
+          <t>5ebaa739-b1a4-443b-9cde-6c0b18e81607</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NEMO Science Museum</t>
+          <t>Museon</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>54f9204e-e6fd-4ea3-a352-84484292b8ba</t>
+          <t>7810d0eb-0034-457b-9cf7-ae7aa21e104f</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PreHistorisch Dorp</t>
+          <t>Rijksmuseum Amsterdam</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -2251,16 +5722,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>438</v>
+        <v>58</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>d9c3694b-8999-46e7-9264-66e2ca190c86</t>
+          <t>1cf7d97e-57d6-4550-be98-8d19ea5ac3a5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Veiligheidsmuseum PIT</t>
+          <t>Pieter Vermeulen Museum</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -2279,10 +5750,10 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2317,7 +5788,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>art_galleries</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -2328,58 +5799,58 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>36</v>
+        <v>367</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1335f2de-05b0-4351-8cae-1cb1263b3791</t>
+          <t>b95305d9-cc57-498c-8819-c1983713d181</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Het Scheepvaartmuseum</t>
+          <t>Keramiekcentrum Tiendschuur Tegelen</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>483</v>
+        <v>169</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>f76d5813-3efb-44c8-beff-5d2a569d7eb3</t>
+          <t>5248e557-c948-4103-813a-8ffb30305466</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Museum Gouda</t>
+          <t>Nederlands Tegelmuseum</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6c17c8de-2dd0-4670-b55d-402b84e26787</t>
+          <t>7433df02-7eee-40bc-a5c5-98fb3373fbc9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Historisch Museum De Bevelanden</t>
+          <t>Museum Tot Zover</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -2391,37 +5862,37 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>476</v>
+        <v>287</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>f42e58c1-d6e6-4bdb-aa51-e0af569e31df</t>
+          <t>9457c575-1900-4fc7-aca3-c7e1a1f26826</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Joods Historisch Museum</t>
+          <t>CODA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>71728b2c-4b17-4855-8663-98a7788acaf0</t>
+          <t>35fbec41-a299-4e7a-ae03-a063e4d4e5f7</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Groninger Museum</t>
+          <t>Marie Tak van Poortvliet Museum</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -2433,16 +5904,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>273</v>
+        <v>408</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8fae9e9b-5c62-477b-9ccc-d9d3ec1d695c</t>
+          <t>cbebd2e6-4fd8-4bd8-a455-5310d4895828</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nederlands Zilvermuseum</t>
+          <t>De Appel</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -2454,16 +5925,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>971a3945-faba-4021-8d5b-5b6fcd124640</t>
+          <t>053014de-f18f-45e3-8dc6-c3f907646311</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Zuiderzeemuseum</t>
+          <t>Museum De Domijnen, afdeling Hedendaagse Kunst</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -2475,16 +5946,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>309</v>
+        <v>18</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9d3a2998-159f-42de-b069-48efe943607d</t>
+          <t>078fe561-4a1d-4712-b204-11913bdd57b4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Gorcums Museum</t>
+          <t>Kunstvereniging Diepenheim</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -2496,16 +5967,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3f3b1b62-9a79-46dd-97dd-3a3e6edf74d1</t>
+          <t>56518036-a7ca-43fe-b010-2ddfcec6aca3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Zeeuws Maritiem MuZEEum</t>
+          <t>Mauritshuis</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -2517,16 +5988,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>235</v>
+        <v>53</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7810d0eb-0034-457b-9cf7-ae7aa21e104f</t>
+          <t>1a918684-33d5-485a-80b7-90a8086803ef</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rijksmuseum Amsterdam</t>
+          <t>Buitenplaats Kasteel Wijlre</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -2545,10 +6016,10 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2583,7 +6054,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cluster4</t>
+          <t>visual historical art</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -2594,16 +6065,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2adac304-3df6-4588-a60b-c763f29595f9</t>
+          <t>3df5f7b5-a809-489d-912d-8a1b1baec86b</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Historisch Museum Den Briel</t>
+          <t>Museum Giethoorn 't Olde Maat Uus</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -2615,16 +6086,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6c17c8de-2dd0-4670-b55d-402b84e26787</t>
+          <t>77dc3244-2ab9-4340-bb76-d29401097a09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Historisch Museum De Bevelanden</t>
+          <t>Museum Kaap Skil</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -2636,16 +6107,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>40df8d12-f944-476e-9c56-b916760428d8</t>
+          <t>69295701-69e0-47c2-89c5-1586e4f3f64a</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Museum Hengelo</t>
+          <t>Nationaal Baggermuseum</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -2657,16 +6128,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>448</v>
+        <v>303</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dffe8ae8-e39f-49d2-a41b-004775a406a8</t>
+          <t>9ad52af8-ef66-4266-b413-0e1a57995f50</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Portugese Synagoge Amsterdam</t>
+          <t>Nationaal Reddingmuseum Dorus Rijkers</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -2678,16 +6149,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>236</v>
+        <v>130</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>783538c2-21d3-4a79-9830-01b9ae3812b9</t>
+          <t>3f3b1b62-9a79-46dd-97dd-3a3e6edf74d1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Design Museum Den Bosch</t>
+          <t>Zeeuws Maritiem MuZEEum</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -2699,16 +6170,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>166</v>
+        <v>312</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>51e0605c-118c-43ba-b395-a579ef5c2716</t>
+          <t>9f10ad8a-4d3c-4d7e-ab05-5c1bf5adc3f0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Galerij Prins Willem V</t>
+          <t>Mariniersmuseum</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -2720,16 +6191,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>476</v>
+        <v>239</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>f42e58c1-d6e6-4bdb-aa51-e0af569e31df</t>
+          <t>7a2966b5-97fa-4cd3-9408-9e415182ca4e</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Joods Historisch Museum</t>
+          <t>Batavialand</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -2741,16 +6212,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>309</v>
+        <v>36</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9d3a2998-159f-42de-b069-48efe943607d</t>
+          <t>1335f2de-05b0-4351-8cae-1cb1263b3791</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Gorcums Museum</t>
+          <t>Het Scheepvaartmuseum</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -2762,16 +6233,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>92a87b6a-4b73-4d77-a81b-4d4501893c4e</t>
+          <t>971a3945-faba-4021-8d5b-5b6fcd124640</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Elisabeth Weeshuis Museum</t>
+          <t>Zuiderzeemuseum</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -2783,23 +6254,23 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>298</v>
+        <v>89</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>97dca6c1-6b1a-4ffe-a048-83ecce6707a5</t>
+          <t>2c843151-3bfa-4329-8f32-5e969d913214</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Beeld en Geluid Den Haag</t>
+          <t>Marinemuseum</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2811,10 +6282,10 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2849,7 +6320,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cluster0</t>
+          <t>restaurant</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -2860,16 +6331,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>263</v>
+        <v>380</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>87b2cce5-2b71-4838-90cc-85ed7f345937</t>
+          <t>bf8b8c20-c838-44b9-a574-303d4b3e66e8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Museum Martena</t>
+          <t>Teylers Museum</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -2881,16 +6352,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>350</v>
+        <v>435</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ae7a3560-ceb4-4f91-9672-8041e77c5fe5</t>
+          <t>d7f027c1-49fa-4fa8-a661-43598ed47263</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fries Museum</t>
+          <t>Kunsthal  Rotterdam</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -2902,16 +6373,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>468</v>
+        <v>142</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ef3c203e-a858-4f66-b2c8-59793913a386</t>
+          <t>471dcd8a-6a1b-44aa-b073-0f024f72dde3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jopie Huisman Museum</t>
+          <t>Rijksmuseum Twenthe</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -2923,16 +6394,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>377</v>
+        <v>284</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bf3dca2d-4523-45ce-84f0-ba0c9e3be824</t>
+          <t>937d7d96-ccc0-4131-b26a-b37969c68770</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Westlands Museum</t>
+          <t>Singer Laren</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -2944,16 +6415,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>72</v>
+        <v>273</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>209fe943-8c16-4342-888c-d752adc50e82</t>
+          <t>8fae9e9b-5c62-477b-9ccc-d9d3ec1d695c</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fries Verzetsmuseum</t>
+          <t>Nederlands Zilvermuseum</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -2965,16 +6436,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>39b0a7b4-6bf6-4c5d-a29a-0e4266055be1</t>
+          <t>60dcdaf1-a16f-4a63-877b-1734d0e74d8d</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Museum De Waag</t>
+          <t>Kunstmuseum Den Haag</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -2986,16 +6457,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>470</v>
+        <v>94</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>f05af616-d419-463e-89da-c107b2f20129</t>
+          <t>2fc39c27-ca42-462c-b8a5-6b8fdb927961</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Museum Het Valkhof</t>
+          <t>Van Abbemuseum</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -3007,37 +6478,37 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>416</v>
+        <v>87</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cfcd6f00-5b4b-4738-951b-5feb1945e644</t>
+          <t>2aab8e4a-58db-4bf4-afe8-06a444b8e56c</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Het Noordbrabants Museum</t>
+          <t>Keramiekmuseum Princessehof</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>411</v>
+        <v>483</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ce103d55-e291-48e2-ab48-7e464261985f</t>
+          <t>f76d5813-3efb-44c8-beff-5d2a569d7eb3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Museum Maassluis</t>
+          <t>Museum Gouda</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3049,16 +6520,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>689733f3-0f0a-411d-b5b4-a33dd39639f0</t>
+          <t>71728b2c-4b17-4855-8663-98a7788acaf0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Museum Weesp</t>
+          <t>Groninger Museum</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -3077,10 +6548,10 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
